--- a/ReduplicatingTheStudy/AblationStudy/metrics_stats_plots/ablation_data.xlsx
+++ b/ReduplicatingTheStudy/AblationStudy/metrics_stats_plots/ablation_data.xlsx
@@ -500,10 +500,10 @@
         <v>0.729</v>
       </c>
       <c r="F2" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.852</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6840000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0.759</v>
@@ -534,10 +534,10 @@
         <v>0.715</v>
       </c>
       <c r="F3" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.882</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.662</v>
       </c>
       <c r="H3" t="n">
         <v>0.756</v>
@@ -568,10 +568,10 @@
         <v>0.672</v>
       </c>
       <c r="F4" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.871</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.623</v>
       </c>
       <c r="H4" t="n">
         <v>0.726</v>
@@ -602,10 +602,10 @@
         <v>0.704</v>
       </c>
       <c r="F5" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.8169999999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.666</v>
       </c>
       <c r="H5" t="n">
         <v>0.734</v>
@@ -636,10 +636,10 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="F6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>0.838</v>
@@ -670,10 +670,10 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="F7" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.8139999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.645</v>
       </c>
       <c r="H7" t="n">
         <v>0.72</v>
@@ -704,10 +704,10 @@
         <v>0.741</v>
       </c>
       <c r="F8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.876</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6899999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0.772</v>
@@ -738,10 +738,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F9" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.644</v>
       </c>
       <c r="H9" t="n">
         <v>0.733</v>
@@ -772,10 +772,10 @@
         <v>0.727</v>
       </c>
       <c r="F10" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.889</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.672</v>
       </c>
       <c r="H10" t="n">
         <v>0.765</v>
@@ -806,10 +806,10 @@
         <v>0.714</v>
       </c>
       <c r="F11" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.673</v>
       </c>
       <c r="H11" t="n">
         <v>0.744</v>
@@ -840,10 +840,10 @@
         <v>0.734</v>
       </c>
       <c r="F12" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.897</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.677</v>
       </c>
       <c r="H12" t="n">
         <v>0.772</v>
@@ -874,10 +874,10 @@
         <v>0.601</v>
       </c>
       <c r="F13" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.722</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.581</v>
       </c>
       <c r="H13" t="n">
         <v>0.644</v>
@@ -908,10 +908,10 @@
         <v>0.619</v>
       </c>
       <c r="F14" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.676</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.607</v>
       </c>
       <c r="H14" t="n">
         <v>0.64</v>
@@ -942,10 +942,10 @@
         <v>0.651</v>
       </c>
       <c r="F15" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.773</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.622</v>
       </c>
       <c r="H15" t="n">
         <v>0.6889999999999999</v>
@@ -976,10 +976,10 @@
         <v>0.874</v>
       </c>
       <c r="F16" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.822</v>
       </c>
       <c r="H16" t="n">
         <v>0.884</v>
@@ -1010,10 +1010,10 @@
         <v>0.585</v>
       </c>
       <c r="F17" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.724</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5659999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0.635</v>
@@ -1044,10 +1044,10 @@
         <v>0.677</v>
       </c>
       <c r="F18" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.797</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.643</v>
       </c>
       <c r="H18" t="n">
         <v>0.712</v>
@@ -1078,10 +1078,10 @@
         <v>0.597</v>
       </c>
       <c r="F19" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.712</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.579</v>
       </c>
       <c r="H19" t="n">
         <v>0.639</v>
@@ -1112,10 +1112,10 @@
         <v>0.672</v>
       </c>
       <c r="F20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.625</v>
       </c>
       <c r="H20" t="n">
         <v>0.724</v>
@@ -1146,10 +1146,10 @@
         <v>0.6</v>
       </c>
       <c r="F21" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.82</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.569</v>
       </c>
       <c r="H21" t="n">
         <v>0.672</v>
@@ -1180,10 +1180,10 @@
         <v>0.643</v>
       </c>
       <c r="F22" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.804</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.608</v>
       </c>
       <c r="H22" t="n">
         <v>0.6919999999999999</v>
@@ -1214,10 +1214,10 @@
         <v>0.874</v>
       </c>
       <c r="F23" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.825</v>
       </c>
       <c r="H23" t="n">
         <v>0.883</v>
@@ -1248,10 +1248,10 @@
         <v>0.649</v>
       </c>
       <c r="F24" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.784</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.618</v>
       </c>
       <c r="H24" t="n">
         <v>0.6909999999999999</v>
@@ -1282,10 +1282,10 @@
         <v>0.606</v>
       </c>
       <c r="F25" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.788</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.578</v>
       </c>
       <c r="H25" t="n">
         <v>0.667</v>
@@ -1316,10 +1316,10 @@
         <v>0.861</v>
       </c>
       <c r="F26" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.802</v>
       </c>
       <c r="H26" t="n">
         <v>0.873</v>
@@ -1350,10 +1350,10 @@
         <v>0.717</v>
       </c>
       <c r="F27" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.663</v>
       </c>
       <c r="H27" t="n">
         <v>0.757</v>
@@ -1384,10 +1384,10 @@
         <v>0.715</v>
       </c>
       <c r="F28" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.871</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.663</v>
       </c>
       <c r="H28" t="n">
         <v>0.753</v>
@@ -1418,10 +1418,10 @@
         <v>0.715</v>
       </c>
       <c r="F29" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.872</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.664</v>
       </c>
       <c r="H29" t="n">
         <v>0.754</v>
@@ -1452,10 +1452,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="F30" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.836</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.641</v>
       </c>
       <c r="H30" t="n">
         <v>0.726</v>
@@ -1486,10 +1486,10 @@
         <v>0.7</v>
       </c>
       <c r="F31" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.888</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.646</v>
       </c>
       <c r="H31" t="n">
         <v>0.748</v>
@@ -1520,10 +1520,10 @@
         <v>0.746</v>
       </c>
       <c r="F32" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.878</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.694</v>
       </c>
       <c r="H32" t="n">
         <v>0.775</v>
@@ -1554,10 +1554,10 @@
         <v>0.862</v>
       </c>
       <c r="F33" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.804</v>
       </c>
       <c r="H33" t="n">
         <v>0.875</v>
@@ -1588,10 +1588,10 @@
         <v>0.87</v>
       </c>
       <c r="F34" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.8179999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0.88</v>
@@ -1622,10 +1622,10 @@
         <v>0.695</v>
       </c>
       <c r="F35" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.861</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.646</v>
       </c>
       <c r="H35" t="n">
         <v>0.738</v>
@@ -1656,10 +1656,10 @@
         <v>0.604</v>
       </c>
       <c r="F36" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.775</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.578</v>
       </c>
       <c r="H36" t="n">
         <v>0.662</v>
@@ -1690,10 +1690,10 @@
         <v>0.791</v>
       </c>
       <c r="F37" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.971</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.714</v>
       </c>
       <c r="H37" t="n">
         <v>0.823</v>
@@ -1724,10 +1724,10 @@
         <v>0.736</v>
       </c>
       <c r="F38" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.86</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6889999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0.765</v>
@@ -1758,10 +1758,10 @@
         <v>0.676</v>
       </c>
       <c r="F39" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.842</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.632</v>
       </c>
       <c r="H39" t="n">
         <v>0.722</v>
@@ -1792,10 +1792,10 @@
         <v>0.852</v>
       </c>
       <c r="F40" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.789</v>
       </c>
       <c r="H40" t="n">
         <v>0.866</v>
@@ -1826,10 +1826,10 @@
         <v>0.866</v>
       </c>
       <c r="F41" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.8100000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0.877</v>
@@ -1860,10 +1860,10 @@
         <v>0.67</v>
       </c>
       <c r="F42" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.882</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.619</v>
       </c>
       <c r="H42" t="n">
         <v>0.727</v>
@@ -1894,10 +1894,10 @@
         <v>0.845</v>
       </c>
       <c r="F43" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.786</v>
       </c>
       <c r="H43" t="n">
         <v>0.86</v>
@@ -1928,10 +1928,10 @@
         <v>0.6</v>
       </c>
       <c r="F44" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.788</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.572</v>
       </c>
       <c r="H44" t="n">
         <v>0.663</v>
@@ -1962,10 +1962,10 @@
         <v>0.631</v>
       </c>
       <c r="F45" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.805</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.598</v>
       </c>
       <c r="H45" t="n">
         <v>0.6860000000000001</v>
@@ -1996,10 +1996,10 @@
         <v>0.669</v>
       </c>
       <c r="F46" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.794</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.635</v>
       </c>
       <c r="H46" t="n">
         <v>0.706</v>
@@ -2030,10 +2030,10 @@
         <v>0.595</v>
       </c>
       <c r="F47" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.738</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.574</v>
       </c>
       <c r="H47" t="n">
         <v>0.646</v>
@@ -2064,10 +2064,10 @@
         <v>0.705</v>
       </c>
       <c r="F48" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.8179999999999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.667</v>
       </c>
       <c r="H48" t="n">
         <v>0.735</v>
@@ -2098,10 +2098,10 @@
         <v>0.639</v>
       </c>
       <c r="F49" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.78</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.608</v>
       </c>
       <c r="H49" t="n">
         <v>0.6830000000000001</v>
@@ -2132,10 +2132,10 @@
         <v>0.723</v>
       </c>
       <c r="F50" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.903</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.664</v>
       </c>
       <c r="H50" t="n">
         <v>0.765</v>
@@ -2166,10 +2166,10 @@
         <v>0.599</v>
       </c>
       <c r="F51" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.751</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.576</v>
       </c>
       <c r="H51" t="n">
         <v>0.652</v>
@@ -2200,10 +2200,10 @@
         <v>0.589</v>
       </c>
       <c r="F52" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.756</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.5669999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0.648</v>
@@ -2234,10 +2234,10 @@
         <v>0.745</v>
       </c>
       <c r="F53" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.866</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.698</v>
       </c>
       <c r="H53" t="n">
         <v>0.773</v>
@@ -2268,10 +2268,10 @@
         <v>0.626</v>
       </c>
       <c r="F54" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.802</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.593</v>
       </c>
       <c r="H54" t="n">
         <v>0.6820000000000001</v>
@@ -2302,10 +2302,10 @@
         <v>0.65</v>
       </c>
       <c r="F55" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.791</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.617</v>
       </c>
       <c r="H55" t="n">
         <v>0.6929999999999999</v>
@@ -2336,10 +2336,10 @@
         <v>0.607</v>
       </c>
       <c r="F56" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.706</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.589</v>
       </c>
       <c r="H56" t="n">
         <v>0.642</v>
@@ -2370,10 +2370,10 @@
         <v>0.672</v>
       </c>
       <c r="F57" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.629</v>
       </c>
       <c r="H57" t="n">
         <v>0.719</v>
@@ -2404,10 +2404,10 @@
         <v>0.584</v>
       </c>
       <c r="F58" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.748</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.5629999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0.642</v>
@@ -2438,10 +2438,10 @@
         <v>0.718</v>
       </c>
       <c r="F59" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.863</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.669</v>
       </c>
       <c r="H59" t="n">
         <v>0.754</v>
@@ -2472,10 +2472,10 @@
         <v>0.697</v>
       </c>
       <c r="F60" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.785</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.667</v>
       </c>
       <c r="H60" t="n">
         <v>0.721</v>
@@ -2506,10 +2506,10 @@
         <v>0.721</v>
       </c>
       <c r="F61" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.866</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.672</v>
       </c>
       <c r="H61" t="n">
         <v>0.757</v>
@@ -2540,10 +2540,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F62" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.862</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.634</v>
       </c>
       <c r="H62" t="n">
         <v>0.731</v>
@@ -2574,10 +2574,10 @@
         <v>0.719</v>
       </c>
       <c r="F63" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.878</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.666</v>
       </c>
       <c r="H63" t="n">
         <v>0.757</v>
@@ -2608,10 +2608,10 @@
         <v>0.845</v>
       </c>
       <c r="F64" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.9360000000000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.792</v>
       </c>
       <c r="H64" t="n">
         <v>0.858</v>
@@ -2642,10 +2642,10 @@
         <v>0.731</v>
       </c>
       <c r="F65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.872</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.68</v>
       </c>
       <c r="H65" t="n">
         <v>0.764</v>
@@ -2676,10 +2676,10 @@
         <v>0.774</v>
       </c>
       <c r="F66" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.971</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.697</v>
       </c>
       <c r="H66" t="n">
         <v>0.8110000000000001</v>
@@ -2710,10 +2710,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F67" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.823</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.648</v>
       </c>
       <c r="H67" t="n">
         <v>0.725</v>
@@ -2744,10 +2744,10 @@
         <v>0.668</v>
       </c>
       <c r="F68" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.626</v>
       </c>
       <c r="H68" t="n">
         <v>0.714</v>
@@ -2778,10 +2778,10 @@
         <v>0.636</v>
       </c>
       <c r="F69" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.8070000000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.601</v>
       </c>
       <c r="H69" t="n">
         <v>0.6889999999999999</v>
@@ -2812,10 +2812,10 @@
         <v>0.591</v>
       </c>
       <c r="F70" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.735</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.57</v>
       </c>
       <c r="H70" t="n">
         <v>0.642</v>
@@ -2846,10 +2846,10 @@
         <v>0.661</v>
       </c>
       <c r="F71" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.613</v>
       </c>
       <c r="H71" t="n">
         <v>0.721</v>
@@ -2880,10 +2880,10 @@
         <v>0.672</v>
       </c>
       <c r="F72" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.8169999999999999</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.633</v>
       </c>
       <c r="H72" t="n">
         <v>0.713</v>
@@ -2914,10 +2914,10 @@
         <v>0.715</v>
       </c>
       <c r="F73" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.9</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.657</v>
       </c>
       <c r="H73" t="n">
         <v>0.76</v>
@@ -2948,10 +2948,10 @@
         <v>0.612</v>
       </c>
       <c r="F74" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.785</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.583</v>
       </c>
       <c r="H74" t="n">
         <v>0.669</v>
@@ -2982,10 +2982,10 @@
         <v>0.702</v>
       </c>
       <c r="F75" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.886</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.648</v>
       </c>
       <c r="H75" t="n">
         <v>0.749</v>
@@ -3016,10 +3016,10 @@
         <v>0.704</v>
       </c>
       <c r="F76" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.884</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.65</v>
       </c>
       <c r="H76" t="n">
         <v>0.749</v>
@@ -3050,10 +3050,10 @@
         <v>0.851</v>
       </c>
       <c r="F77" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.9409999999999999</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.797</v>
       </c>
       <c r="H77" t="n">
         <v>0.863</v>
@@ -3084,10 +3084,10 @@
         <v>0.623</v>
       </c>
       <c r="F78" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.711</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.604</v>
       </c>
       <c r="H78" t="n">
         <v>0.653</v>
@@ -3118,10 +3118,10 @@
         <v>0.673</v>
       </c>
       <c r="F79" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.826</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.632</v>
       </c>
       <c r="H79" t="n">
         <v>0.716</v>
@@ -3152,10 +3152,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F80" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.857</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.635</v>
       </c>
       <c r="H80" t="n">
         <v>0.729</v>
@@ -3186,10 +3186,10 @@
         <v>0.751</v>
       </c>
       <c r="F81" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.849</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.71</v>
       </c>
       <c r="H81" t="n">
         <v>0.773</v>
@@ -3220,10 +3220,10 @@
         <v>0.713</v>
       </c>
       <c r="F82" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.865</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.663</v>
       </c>
       <c r="H82" t="n">
         <v>0.751</v>
@@ -3254,10 +3254,10 @@
         <v>0.862</v>
       </c>
       <c r="F83" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.802</v>
       </c>
       <c r="H83" t="n">
         <v>0.874</v>
@@ -3288,10 +3288,10 @@
         <v>0.701</v>
       </c>
       <c r="F84" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.87</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.65</v>
       </c>
       <c r="H84" t="n">
         <v>0.744</v>
@@ -3322,10 +3322,10 @@
         <v>0.703</v>
       </c>
       <c r="F85" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.853</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.656</v>
       </c>
       <c r="H85" t="n">
         <v>0.742</v>
@@ -3356,10 +3356,10 @@
         <v>0.704</v>
       </c>
       <c r="F86" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.855</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.657</v>
       </c>
       <c r="H86" t="n">
         <v>0.743</v>
@@ -3390,10 +3390,10 @@
         <v>0.704</v>
       </c>
       <c r="F87" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.867</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.654</v>
       </c>
       <c r="H87" t="n">
         <v>0.746</v>
@@ -3424,10 +3424,10 @@
         <v>0.676</v>
       </c>
       <c r="F88" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.632</v>
       </c>
       <c r="H88" t="n">
         <v>0.721</v>
@@ -3458,10 +3458,10 @@
         <v>0.735</v>
       </c>
       <c r="F89" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.845</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.6919999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0.761</v>
@@ -3492,10 +3492,10 @@
         <v>0.715</v>
       </c>
       <c r="F90" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.838</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.673</v>
       </c>
       <c r="H90" t="n">
         <v>0.746</v>
@@ -3526,10 +3526,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F91" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.797</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.66</v>
       </c>
       <c r="H91" t="n">
         <v>0.722</v>
@@ -3560,10 +3560,10 @@
         <v>0.704</v>
       </c>
       <c r="F92" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.867</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.654</v>
       </c>
       <c r="H92" t="n">
         <v>0.746</v>
@@ -3594,10 +3594,10 @@
         <v>0.655</v>
       </c>
       <c r="F93" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.794</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.621</v>
       </c>
       <c r="H93" t="n">
         <v>0.697</v>
@@ -3628,10 +3628,10 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="F94" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.651</v>
       </c>
       <c r="H94" t="n">
         <v>0.729</v>
@@ -3662,10 +3662,10 @@
         <v>0.695</v>
       </c>
       <c r="F95" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.8179999999999999</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.657</v>
       </c>
       <c r="H95" t="n">
         <v>0.729</v>
@@ -3696,10 +3696,10 @@
         <v>0.679</v>
       </c>
       <c r="F96" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.828</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.638</v>
       </c>
       <c r="H96" t="n">
         <v>0.721</v>
@@ -3730,10 +3730,10 @@
         <v>0.87</v>
       </c>
       <c r="F97" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.948</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.82</v>
       </c>
       <c r="H97" t="n">
         <v>0.879</v>
@@ -3764,10 +3764,10 @@
         <v>0.868</v>
       </c>
       <c r="F98" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.8110000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0.878</v>
@@ -3798,10 +3798,10 @@
         <v>0.85</v>
       </c>
       <c r="F99" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.963</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.786</v>
       </c>
       <c r="H99" t="n">
         <v>0.866</v>
@@ -3832,10 +3832,10 @@
         <v>0.711</v>
       </c>
       <c r="F100" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.886</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.656</v>
       </c>
       <c r="H100" t="n">
         <v>0.754</v>
@@ -3866,10 +3866,10 @@
         <v>0.734</v>
       </c>
       <c r="F101" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.917</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.671</v>
       </c>
       <c r="H101" t="n">
         <v>0.775</v>
@@ -3900,10 +3900,10 @@
         <v>0.631</v>
       </c>
       <c r="F102" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.801</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.598</v>
       </c>
       <c r="H102" t="n">
         <v>0.6850000000000001</v>
@@ -3934,10 +3934,10 @@
         <v>0.652</v>
       </c>
       <c r="F103" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.821</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.613</v>
       </c>
       <c r="H103" t="n">
         <v>0.702</v>
@@ -3968,10 +3968,10 @@
         <v>0.846</v>
       </c>
       <c r="F104" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.783</v>
       </c>
       <c r="H104" t="n">
         <v>0.861</v>
@@ -4002,10 +4002,10 @@
         <v>0.855</v>
       </c>
       <c r="F105" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.9409999999999999</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.803</v>
       </c>
       <c r="H105" t="n">
         <v>0.867</v>
@@ -4036,10 +4036,10 @@
         <v>0.678</v>
       </c>
       <c r="F106" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.865</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.63</v>
       </c>
       <c r="H106" t="n">
         <v>0.729</v>
@@ -4070,10 +4070,10 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="F107" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.837</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.642</v>
       </c>
       <c r="H107" t="n">
         <v>0.727</v>
@@ -4104,10 +4104,10 @@
         <v>0.72</v>
       </c>
       <c r="F108" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.882</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.667</v>
       </c>
       <c r="H108" t="n">
         <v>0.76</v>
@@ -4138,10 +4138,10 @@
         <v>0.87</v>
       </c>
       <c r="F109" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.8129999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0.88</v>
@@ -4172,10 +4172,10 @@
         <v>0.856</v>
       </c>
       <c r="F110" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.795</v>
       </c>
       <c r="H110" t="n">
         <v>0.869</v>
@@ -4206,10 +4206,10 @@
         <v>0.664</v>
       </c>
       <c r="F111" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.825</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.624</v>
       </c>
       <c r="H111" t="n">
         <v>0.711</v>
@@ -4240,10 +4240,10 @@
         <v>0.663</v>
       </c>
       <c r="F112" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.621</v>
       </c>
       <c r="H112" t="n">
         <v>0.714</v>
@@ -4274,10 +4274,10 @@
         <v>0.707</v>
       </c>
       <c r="F113" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.844</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.662</v>
       </c>
       <c r="H113" t="n">
         <v>0.742</v>
@@ -4308,10 +4308,10 @@
         <v>0.6870000000000001</v>
       </c>
       <c r="F114" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.645</v>
       </c>
       <c r="H114" t="n">
         <v>0.726</v>
@@ -4342,10 +4342,10 @@
         <v>0.62</v>
       </c>
       <c r="F115" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.774</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.591</v>
       </c>
       <c r="H115" t="n">
         <v>0.67</v>
@@ -4376,10 +4376,10 @@
         <v>0.736</v>
       </c>
       <c r="F116" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.895</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.679</v>
       </c>
       <c r="H116" t="n">
         <v>0.772</v>
@@ -4410,10 +4410,10 @@
         <v>0.735</v>
       </c>
       <c r="F117" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.899</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.677</v>
       </c>
       <c r="H117" t="n">
         <v>0.772</v>
@@ -4444,10 +4444,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F118" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.644</v>
       </c>
       <c r="H118" t="n">
         <v>0.72</v>
@@ -4478,10 +4478,10 @@
         <v>0.602</v>
       </c>
       <c r="F119" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.709</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.584</v>
       </c>
       <c r="H119" t="n">
         <v>0.64</v>
@@ -4512,10 +4512,10 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="F120" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.648</v>
       </c>
       <c r="H120" t="n">
         <v>0.732</v>
@@ -4546,10 +4546,10 @@
         <v>0.622</v>
       </c>
       <c r="F121" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.588</v>
       </c>
       <c r="H121" t="n">
         <v>0.6830000000000001</v>
@@ -4580,10 +4580,10 @@
         <v>0.855</v>
       </c>
       <c r="F122" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.951</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.798</v>
       </c>
       <c r="H122" t="n">
         <v>0.868</v>
@@ -4614,10 +4614,10 @@
         <v>0.694</v>
       </c>
       <c r="F123" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.779</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.666</v>
       </c>
       <c r="H123" t="n">
         <v>0.718</v>
@@ -4648,10 +4648,10 @@
         <v>0.662</v>
       </c>
       <c r="F124" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.625</v>
       </c>
       <c r="H124" t="n">
         <v>0.706</v>
@@ -4682,10 +4682,10 @@
         <v>0.707</v>
       </c>
       <c r="F125" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.781</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.681</v>
       </c>
       <c r="H125" t="n">
         <v>0.728</v>
@@ -4716,10 +4716,10 @@
         <v>0.589</v>
       </c>
       <c r="F126" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.5590000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0.671</v>
@@ -4750,10 +4750,10 @@
         <v>0.605</v>
       </c>
       <c r="F127" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.708</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.587</v>
       </c>
       <c r="H127" t="n">
         <v>0.642</v>
@@ -4784,10 +4784,10 @@
         <v>0.708</v>
       </c>
       <c r="F128" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.857</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.66</v>
       </c>
       <c r="H128" t="n">
         <v>0.746</v>
@@ -4818,10 +4818,10 @@
         <v>0.711</v>
       </c>
       <c r="F129" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.845</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.666</v>
       </c>
       <c r="H129" t="n">
         <v>0.745</v>
@@ -4852,10 +4852,10 @@
         <v>0.675</v>
       </c>
       <c r="F130" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.836</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.633</v>
       </c>
       <c r="H130" t="n">
         <v>0.72</v>
@@ -4886,10 +4886,10 @@
         <v>0.598</v>
       </c>
       <c r="F131" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G131" t="n">
         <v>0.729</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.578</v>
       </c>
       <c r="H131" t="n">
         <v>0.645</v>
@@ -4920,10 +4920,10 @@
         <v>0.633</v>
       </c>
       <c r="F132" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G132" t="n">
         <v>0.784</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.602</v>
       </c>
       <c r="H132" t="n">
         <v>0.681</v>
@@ -4954,10 +4954,10 @@
         <v>0.727</v>
       </c>
       <c r="F133" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G133" t="n">
         <v>0.896</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.67</v>
       </c>
       <c r="H133" t="n">
         <v>0.767</v>
@@ -4988,10 +4988,10 @@
         <v>0.715</v>
       </c>
       <c r="F134" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G134" t="n">
         <v>0.88</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.661</v>
       </c>
       <c r="H134" t="n">
         <v>0.755</v>
@@ -5022,10 +5022,10 @@
         <v>0.665</v>
       </c>
       <c r="F135" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G135" t="n">
         <v>0.826</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.625</v>
       </c>
       <c r="H135" t="n">
         <v>0.712</v>
@@ -5056,10 +5056,10 @@
         <v>0.868</v>
       </c>
       <c r="F136" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G136" t="n">
         <v>0.952</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.8149999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0.878</v>
@@ -5090,10 +5090,10 @@
         <v>0.677</v>
       </c>
       <c r="F137" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G137" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.625</v>
       </c>
       <c r="H137" t="n">
         <v>0.732</v>
@@ -5124,10 +5124,10 @@
         <v>0.721</v>
       </c>
       <c r="F138" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G138" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.666</v>
       </c>
       <c r="H138" t="n">
         <v>0.759</v>
@@ -5158,10 +5158,10 @@
         <v>0.672</v>
       </c>
       <c r="F139" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G139" t="n">
         <v>0.795</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.638</v>
       </c>
       <c r="H139" t="n">
         <v>0.708</v>
@@ -5192,10 +5192,10 @@
         <v>0.639</v>
       </c>
       <c r="F140" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="G140" t="n">
         <v>0.791</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.607</v>
       </c>
       <c r="H140" t="n">
         <v>0.6870000000000001</v>
@@ -5226,10 +5226,10 @@
         <v>0.747</v>
       </c>
       <c r="F141" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="G141" t="n">
         <v>0.88</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.696</v>
       </c>
       <c r="H141" t="n">
         <v>0.777</v>
@@ -5260,10 +5260,10 @@
         <v>0.822</v>
       </c>
       <c r="F142" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G142" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.753</v>
       </c>
       <c r="H142" t="n">
         <v>0.844</v>
@@ -5294,10 +5294,10 @@
         <v>0.731</v>
       </c>
       <c r="F143" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="G143" t="n">
         <v>0.876</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.679</v>
       </c>
       <c r="H143" t="n">
         <v>0.765</v>
@@ -5328,10 +5328,10 @@
         <v>0.625</v>
       </c>
       <c r="F144" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G144" t="n">
         <v>0.751</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0.667</v>
@@ -5362,10 +5362,10 @@
         <v>0.711</v>
       </c>
       <c r="F145" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G145" t="n">
         <v>0.8169999999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.675</v>
       </c>
       <c r="H145" t="n">
         <v>0.739</v>
@@ -5396,10 +5396,10 @@
         <v>0.674</v>
       </c>
       <c r="F146" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G146" t="n">
         <v>0.83</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.633</v>
       </c>
       <c r="H146" t="n">
         <v>0.718</v>
@@ -5430,10 +5430,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F147" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G147" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.645</v>
       </c>
       <c r="H147" t="n">
         <v>0.729</v>
@@ -5464,10 +5464,10 @@
         <v>0.576</v>
       </c>
       <c r="F148" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G148" t="n">
         <v>0.769</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.555</v>
       </c>
       <c r="H148" t="n">
         <v>0.645</v>
@@ -5498,10 +5498,10 @@
         <v>0.726</v>
       </c>
       <c r="F149" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="G149" t="n">
         <v>0.862</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.678</v>
       </c>
       <c r="H149" t="n">
         <v>0.759</v>
@@ -5532,10 +5532,10 @@
         <v>0.724</v>
       </c>
       <c r="F150" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G150" t="n">
         <v>0.893</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.668</v>
       </c>
       <c r="H150" t="n">
         <v>0.764</v>
@@ -5566,10 +5566,10 @@
         <v>0.636</v>
       </c>
       <c r="F151" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="G151" t="n">
         <v>0.793</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.604</v>
       </c>
       <c r="H151" t="n">
         <v>0.6860000000000001</v>
@@ -5600,10 +5600,10 @@
         <v>0.857</v>
       </c>
       <c r="F152" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="G152" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.796</v>
       </c>
       <c r="H152" t="n">
         <v>0.87</v>
@@ -5634,10 +5634,10 @@
         <v>0.872</v>
       </c>
       <c r="F153" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G153" t="n">
         <v>0.946</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.823</v>
       </c>
       <c r="H153" t="n">
         <v>0.88</v>
@@ -5668,10 +5668,10 @@
         <v>0.733</v>
       </c>
       <c r="F154" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G154" t="n">
         <v>0.912</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.672</v>
       </c>
       <c r="H154" t="n">
         <v>0.774</v>
@@ -5702,10 +5702,10 @@
         <v>0.606</v>
       </c>
       <c r="F155" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G155" t="n">
         <v>0.8</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.576</v>
       </c>
       <c r="H155" t="n">
         <v>0.67</v>
@@ -5736,10 +5736,10 @@
         <v>0.836</v>
       </c>
       <c r="F156" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="G156" t="n">
         <v>0.954</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.771</v>
       </c>
       <c r="H156" t="n">
         <v>0.853</v>
@@ -5770,10 +5770,10 @@
         <v>0.824</v>
       </c>
       <c r="F157" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G157" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.758</v>
       </c>
       <c r="H157" t="n">
         <v>0.844</v>
@@ -5804,10 +5804,10 @@
         <v>0.735</v>
       </c>
       <c r="F158" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G158" t="n">
         <v>0.89</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.68</v>
       </c>
       <c r="H158" t="n">
         <v>0.771</v>
@@ -5838,10 +5838,10 @@
         <v>0.611</v>
       </c>
       <c r="F159" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G159" t="n">
         <v>0.803</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.581</v>
       </c>
       <c r="H159" t="n">
         <v>0.674</v>
@@ -5872,10 +5872,10 @@
         <v>0.63</v>
       </c>
       <c r="F160" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G160" t="n">
         <v>0.8110000000000001</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.595</v>
       </c>
       <c r="H160" t="n">
         <v>0.6860000000000001</v>
@@ -5906,10 +5906,10 @@
         <v>0.599</v>
       </c>
       <c r="F161" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G161" t="n">
         <v>0.726</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.579</v>
       </c>
       <c r="H161" t="n">
         <v>0.644</v>
@@ -5940,10 +5940,10 @@
         <v>0.636</v>
       </c>
       <c r="F162" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G162" t="n">
         <v>0.799</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.602</v>
       </c>
       <c r="H162" t="n">
         <v>0.6870000000000001</v>
@@ -5974,10 +5974,10 @@
         <v>0.644</v>
       </c>
       <c r="F163" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G163" t="n">
         <v>0.781</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.613</v>
       </c>
       <c r="H163" t="n">
         <v>0.6870000000000001</v>
@@ -6008,10 +6008,10 @@
         <v>0.857</v>
       </c>
       <c r="F164" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="G164" t="n">
         <v>0.954</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.799</v>
       </c>
       <c r="H164" t="n">
         <v>0.87</v>
@@ -6042,10 +6042,10 @@
         <v>0.728</v>
       </c>
       <c r="F165" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="G165" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.6889999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0.753</v>
@@ -6076,10 +6076,10 @@
         <v>0.73</v>
       </c>
       <c r="F166" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G166" t="n">
         <v>0.878</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.677</v>
       </c>
       <c r="H166" t="n">
         <v>0.765</v>
@@ -6110,10 +6110,10 @@
         <v>0.864</v>
       </c>
       <c r="F167" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="G167" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.806</v>
       </c>
       <c r="H167" t="n">
         <v>0.876</v>
@@ -6144,10 +6144,10 @@
         <v>0.697</v>
       </c>
       <c r="F168" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G168" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.646</v>
       </c>
       <c r="H168" t="n">
         <v>0.743</v>
@@ -6178,10 +6178,10 @@
         <v>0.614</v>
       </c>
       <c r="F169" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G169" t="n">
         <v>0.777</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.586</v>
       </c>
       <c r="H169" t="n">
         <v>0.668</v>
@@ -6212,10 +6212,10 @@
         <v>0.713</v>
       </c>
       <c r="F170" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G170" t="n">
         <v>0.853</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.666</v>
       </c>
       <c r="H170" t="n">
         <v>0.748</v>
@@ -6246,10 +6246,10 @@
         <v>0.736</v>
       </c>
       <c r="F171" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="G171" t="n">
         <v>0.894</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.679</v>
       </c>
       <c r="H171" t="n">
         <v>0.772</v>
@@ -6280,10 +6280,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="F172" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G172" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.745</v>
       </c>
       <c r="H172" t="n">
         <v>0.838</v>
@@ -6314,10 +6314,10 @@
         <v>0.595</v>
       </c>
       <c r="F173" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G173" t="n">
         <v>0.722</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.575</v>
       </c>
       <c r="H173" t="n">
         <v>0.64</v>
@@ -6348,10 +6348,10 @@
         <v>0.778</v>
       </c>
       <c r="F174" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="G174" t="n">
         <v>0.969</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.701</v>
       </c>
       <c r="H174" t="n">
         <v>0.8129999999999999</v>
@@ -6382,10 +6382,10 @@
         <v>0.746</v>
       </c>
       <c r="F175" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="G175" t="n">
         <v>0.88</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.694</v>
       </c>
       <c r="H175" t="n">
         <v>0.776</v>
@@ -6416,10 +6416,10 @@
         <v>0.624</v>
       </c>
       <c r="F176" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G176" t="n">
         <v>0.805</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.591</v>
       </c>
       <c r="H176" t="n">
         <v>0.6820000000000001</v>
@@ -6450,10 +6450,10 @@
         <v>0.625</v>
       </c>
       <c r="F177" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G177" t="n">
         <v>0.778</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.596</v>
       </c>
       <c r="H177" t="n">
         <v>0.675</v>
@@ -6484,10 +6484,10 @@
         <v>0.873</v>
       </c>
       <c r="F178" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G178" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.82</v>
       </c>
       <c r="H178" t="n">
         <v>0.883</v>
@@ -6518,10 +6518,10 @@
         <v>0.638</v>
       </c>
       <c r="F179" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G179" t="n">
         <v>0.798</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.605</v>
       </c>
       <c r="H179" t="n">
         <v>0.6879999999999999</v>
@@ -6552,10 +6552,10 @@
         <v>0.871</v>
       </c>
       <c r="F180" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G180" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0.881</v>
@@ -6586,10 +6586,10 @@
         <v>0.865</v>
       </c>
       <c r="F181" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G181" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0.875</v>
@@ -6620,10 +6620,10 @@
         <v>0.853</v>
       </c>
       <c r="F182" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G182" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.792</v>
       </c>
       <c r="H182" t="n">
         <v>0.867</v>
@@ -6654,10 +6654,10 @@
         <v>0.863</v>
       </c>
       <c r="F183" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="G183" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.806</v>
       </c>
       <c r="H183" t="n">
         <v>0.874</v>
@@ -6688,10 +6688,10 @@
         <v>0.581</v>
       </c>
       <c r="F184" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G184" t="n">
         <v>0.728</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.5620000000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0.634</v>
@@ -6722,10 +6722,10 @@
         <v>0.593</v>
       </c>
       <c r="F185" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G185" t="n">
         <v>0.716</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.574</v>
       </c>
       <c r="H185" t="n">
         <v>0.637</v>
@@ -6756,10 +6756,10 @@
         <v>0.653</v>
       </c>
       <c r="F186" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G186" t="n">
         <v>0.804</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.618</v>
       </c>
       <c r="H186" t="n">
         <v>0.699</v>
@@ -6790,10 +6790,10 @@
         <v>0.727</v>
       </c>
       <c r="F187" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="G187" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.6870000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0.753</v>
@@ -6824,10 +6824,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F188" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G188" t="n">
         <v>0.855</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.646</v>
       </c>
       <c r="H188" t="n">
         <v>0.736</v>
@@ -6858,10 +6858,10 @@
         <v>0.705</v>
       </c>
       <c r="F189" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G189" t="n">
         <v>0.875</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.653</v>
       </c>
       <c r="H189" t="n">
         <v>0.748</v>
@@ -6892,10 +6892,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G190" t="n">
         <v>0.83</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.64</v>
       </c>
       <c r="H190" t="n">
         <v>0.723</v>
@@ -6926,10 +6926,10 @@
         <v>0.593</v>
       </c>
       <c r="F191" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G191" t="n">
         <v>0.71</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.575</v>
       </c>
       <c r="H191" t="n">
         <v>0.635</v>
@@ -6960,10 +6960,10 @@
         <v>0.868</v>
       </c>
       <c r="F192" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G192" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0.879</v>
@@ -6994,10 +6994,10 @@
         <v>0.849</v>
       </c>
       <c r="F193" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G193" t="n">
         <v>0.9340000000000001</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.798</v>
       </c>
       <c r="H193" t="n">
         <v>0.861</v>
@@ -7028,10 +7028,10 @@
         <v>0.679</v>
       </c>
       <c r="F194" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G194" t="n">
         <v>0.826</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.638</v>
       </c>
       <c r="H194" t="n">
         <v>0.72</v>
@@ -7062,10 +7062,10 @@
         <v>0.712</v>
       </c>
       <c r="F195" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G195" t="n">
         <v>0.869</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.661</v>
       </c>
       <c r="H195" t="n">
         <v>0.751</v>
@@ -7096,10 +7096,10 @@
         <v>0.702</v>
       </c>
       <c r="F196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G196" t="n">
         <v>0.875</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.65</v>
       </c>
       <c r="H196" t="n">
         <v>0.746</v>
@@ -7130,10 +7130,10 @@
         <v>0.767</v>
       </c>
       <c r="F197" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="G197" t="n">
         <v>0.974</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.6889999999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0.8070000000000001</v>
@@ -7164,10 +7164,10 @@
         <v>0.715</v>
       </c>
       <c r="F198" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G198" t="n">
         <v>0.838</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.672</v>
       </c>
       <c r="H198" t="n">
         <v>0.746</v>
@@ -7198,10 +7198,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F199" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G199" t="n">
         <v>0.865</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.644</v>
       </c>
       <c r="H199" t="n">
         <v>0.738</v>
@@ -7232,10 +7232,10 @@
         <v>0.717</v>
       </c>
       <c r="F200" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G200" t="n">
         <v>0.888</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.662</v>
       </c>
       <c r="H200" t="n">
         <v>0.759</v>
@@ -7266,10 +7266,10 @@
         <v>0.793</v>
       </c>
       <c r="F201" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G201" t="n">
         <v>0.963</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.718</v>
       </c>
       <c r="H201" t="n">
         <v>0.823</v>
@@ -7300,10 +7300,10 @@
         <v>0.738</v>
       </c>
       <c r="F202" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G202" t="n">
         <v>0.918</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.675</v>
       </c>
       <c r="H202" t="n">
         <v>0.778</v>
@@ -7334,10 +7334,10 @@
         <v>0.582</v>
       </c>
       <c r="F203" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G203" t="n">
         <v>0.761</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.5600000000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0.645</v>
@@ -7368,10 +7368,10 @@
         <v>0.733</v>
       </c>
       <c r="F204" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="G204" t="n">
         <v>0.868</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.6830000000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0.764</v>
@@ -7402,10 +7402,10 @@
         <v>0.87</v>
       </c>
       <c r="F205" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G205" t="n">
         <v>0.951</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.8179999999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0.88</v>
@@ -7436,10 +7436,10 @@
         <v>0.853</v>
       </c>
       <c r="F206" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G206" t="n">
         <v>0.965</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.789</v>
       </c>
       <c r="H206" t="n">
         <v>0.868</v>
@@ -7470,10 +7470,10 @@
         <v>0.619</v>
       </c>
       <c r="F207" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G207" t="n">
         <v>0.796</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.588</v>
       </c>
       <c r="H207" t="n">
         <v>0.676</v>
@@ -7504,10 +7504,10 @@
         <v>0.659</v>
       </c>
       <c r="F208" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G208" t="n">
         <v>0.8070000000000001</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.623</v>
       </c>
       <c r="H208" t="n">
         <v>0.703</v>
@@ -7538,10 +7538,10 @@
         <v>0.615</v>
       </c>
       <c r="F209" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="G209" t="n">
         <v>0.762</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.589</v>
       </c>
       <c r="H209" t="n">
         <v>0.664</v>
@@ -7572,10 +7572,10 @@
         <v>0.75</v>
       </c>
       <c r="F210" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="G210" t="n">
         <v>0.894</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.694</v>
       </c>
       <c r="H210" t="n">
         <v>0.781</v>
@@ -7606,10 +7606,10 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="F211" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="G211" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.742</v>
       </c>
       <c r="H211" t="n">
         <v>0.837</v>
@@ -7640,10 +7640,10 @@
         <v>0.745</v>
       </c>
       <c r="F212" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G212" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.6919999999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0.775</v>
@@ -7674,10 +7674,10 @@
         <v>0.87</v>
       </c>
       <c r="F213" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G213" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0.881</v>
@@ -7708,10 +7708,10 @@
         <v>0.614</v>
       </c>
       <c r="F214" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G214" t="n">
         <v>0.743</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.591</v>
       </c>
       <c r="H214" t="n">
         <v>0.658</v>
@@ -7742,10 +7742,10 @@
         <v>0.869</v>
       </c>
       <c r="F215" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G215" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.8129999999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0.88</v>
@@ -7776,10 +7776,10 @@
         <v>0.723</v>
       </c>
       <c r="F216" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G216" t="n">
         <v>0.896</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.666</v>
       </c>
       <c r="H216" t="n">
         <v>0.764</v>
@@ -7810,10 +7810,10 @@
         <v>0.718</v>
       </c>
       <c r="F217" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G217" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.67</v>
       </c>
       <c r="H217" t="n">
         <v>0.753</v>
@@ -7844,10 +7844,10 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="F218" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G218" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.644</v>
       </c>
       <c r="H218" t="n">
         <v>0.726</v>
@@ -7878,10 +7878,10 @@
         <v>0.725</v>
       </c>
       <c r="F219" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="G219" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.676</v>
       </c>
       <c r="H219" t="n">
         <v>0.759</v>
@@ -7912,10 +7912,10 @@
         <v>0.611</v>
       </c>
       <c r="F220" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G220" t="n">
         <v>0.78</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.583</v>
       </c>
       <c r="H220" t="n">
         <v>0.667</v>
@@ -7946,10 +7946,10 @@
         <v>0.873</v>
       </c>
       <c r="F221" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G221" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.821</v>
       </c>
       <c r="H221" t="n">
         <v>0.883</v>
@@ -7980,10 +7980,10 @@
         <v>0.675</v>
       </c>
       <c r="F222" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G222" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.628</v>
       </c>
       <c r="H222" t="n">
         <v>0.726</v>
@@ -8014,10 +8014,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F223" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G223" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.644</v>
       </c>
       <c r="H223" t="n">
         <v>0.729</v>
@@ -8048,10 +8048,10 @@
         <v>0.632</v>
       </c>
       <c r="F224" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G224" t="n">
         <v>0.712</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.614</v>
       </c>
       <c r="H224" t="n">
         <v>0.659</v>
@@ -8082,10 +8082,10 @@
         <v>0.87</v>
       </c>
       <c r="F225" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="G225" t="n">
         <v>0.951</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.819</v>
       </c>
       <c r="H225" t="n">
         <v>0.88</v>
@@ -8116,10 +8116,10 @@
         <v>0.697</v>
       </c>
       <c r="F226" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G226" t="n">
         <v>0.882</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.643</v>
       </c>
       <c r="H226" t="n">
         <v>0.744</v>
@@ -8150,10 +8150,10 @@
         <v>0.699</v>
       </c>
       <c r="F227" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G227" t="n">
         <v>0.892</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.644</v>
       </c>
       <c r="H227" t="n">
         <v>0.748</v>
@@ -8184,10 +8184,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F228" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G228" t="n">
         <v>0.801</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.651</v>
       </c>
       <c r="H228" t="n">
         <v>0.718</v>
@@ -8218,10 +8218,10 @@
         <v>0.68</v>
       </c>
       <c r="F229" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="G229" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.637</v>
       </c>
       <c r="H229" t="n">
         <v>0.725</v>
@@ -8252,10 +8252,10 @@
         <v>0.72</v>
       </c>
       <c r="F230" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G230" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.666</v>
       </c>
       <c r="H230" t="n">
         <v>0.759</v>
@@ -8286,10 +8286,10 @@
         <v>0.751</v>
       </c>
       <c r="F231" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="G231" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.701</v>
       </c>
       <c r="H231" t="n">
         <v>0.778</v>
@@ -8320,10 +8320,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F232" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G232" t="n">
         <v>0.8</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.653</v>
       </c>
       <c r="H232" t="n">
         <v>0.719</v>
@@ -8354,10 +8354,10 @@
         <v>0.705</v>
       </c>
       <c r="F233" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G233" t="n">
         <v>0.861</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.656</v>
       </c>
       <c r="H233" t="n">
         <v>0.745</v>
@@ -8388,10 +8388,10 @@
         <v>0.644</v>
       </c>
       <c r="F234" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G234" t="n">
         <v>0.786</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.612</v>
       </c>
       <c r="H234" t="n">
         <v>0.6879999999999999</v>
@@ -8422,10 +8422,10 @@
         <v>0.715</v>
       </c>
       <c r="F235" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G235" t="n">
         <v>0.882</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.661</v>
       </c>
       <c r="H235" t="n">
         <v>0.756</v>
@@ -8456,10 +8456,10 @@
         <v>0.725</v>
       </c>
       <c r="F236" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G236" t="n">
         <v>0.847</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.681</v>
       </c>
       <c r="H236" t="n">
         <v>0.755</v>
@@ -8490,10 +8490,10 @@
         <v>0.869</v>
       </c>
       <c r="F237" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G237" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.8139999999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0.879</v>
@@ -8524,10 +8524,10 @@
         <v>0.834</v>
       </c>
       <c r="F238" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="G238" t="n">
         <v>0.9429999999999999</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.774</v>
       </c>
       <c r="H238" t="n">
         <v>0.85</v>
@@ -8558,10 +8558,10 @@
         <v>0.702</v>
       </c>
       <c r="F239" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G239" t="n">
         <v>0.854</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.655</v>
       </c>
       <c r="H239" t="n">
         <v>0.741</v>
@@ -8592,10 +8592,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F240" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G240" t="n">
         <v>0.8070000000000001</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.658</v>
       </c>
       <c r="H240" t="n">
         <v>0.725</v>
@@ -8626,10 +8626,10 @@
         <v>0.737</v>
       </c>
       <c r="F241" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="G241" t="n">
         <v>0.884</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.6830000000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0.771</v>
@@ -8660,10 +8660,10 @@
         <v>0.597</v>
       </c>
       <c r="F242" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G242" t="n">
         <v>0.708</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.579</v>
       </c>
       <c r="H242" t="n">
         <v>0.637</v>
@@ -8694,10 +8694,10 @@
         <v>0.873</v>
       </c>
       <c r="F243" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G243" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.82</v>
       </c>
       <c r="H243" t="n">
         <v>0.883</v>
@@ -8728,10 +8728,10 @@
         <v>0.678</v>
       </c>
       <c r="F244" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G244" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.634</v>
       </c>
       <c r="H244" t="n">
         <v>0.722</v>
@@ -8762,10 +8762,10 @@
         <v>0.714</v>
       </c>
       <c r="F245" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G245" t="n">
         <v>0.858</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.667</v>
       </c>
       <c r="H245" t="n">
         <v>0.751</v>
@@ -8796,10 +8796,10 @@
         <v>0.642</v>
       </c>
       <c r="F246" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G246" t="n">
         <v>0.785</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.61</v>
       </c>
       <c r="H246" t="n">
         <v>0.6870000000000001</v>
@@ -8830,10 +8830,10 @@
         <v>0.675</v>
       </c>
       <c r="F247" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="G247" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.627</v>
       </c>
       <c r="H247" t="n">
         <v>0.727</v>
@@ -8864,10 +8864,10 @@
         <v>0.592</v>
       </c>
       <c r="F248" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G248" t="n">
         <v>0.717</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.574</v>
       </c>
       <c r="H248" t="n">
         <v>0.638</v>
@@ -8898,10 +8898,10 @@
         <v>0.866</v>
       </c>
       <c r="F249" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="G249" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.8090000000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0.877</v>
@@ -8932,10 +8932,10 @@
         <v>0.865</v>
       </c>
       <c r="F250" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="G250" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.8090000000000001</v>
       </c>
       <c r="H250" t="n">
         <v>0.876</v>
@@ -8966,10 +8966,10 @@
         <v>0.851</v>
       </c>
       <c r="F251" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="G251" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.789</v>
       </c>
       <c r="H251" t="n">
         <v>0.866</v>
@@ -9000,10 +9000,10 @@
         <v>0.866</v>
       </c>
       <c r="F252" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="G252" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.8080000000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0.877</v>
@@ -9034,10 +9034,10 @@
         <v>0.654</v>
       </c>
       <c r="F253" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G253" t="n">
         <v>0.776</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.624</v>
       </c>
       <c r="H253" t="n">
         <v>0.6919999999999999</v>
@@ -9068,10 +9068,10 @@
         <v>0.697</v>
       </c>
       <c r="F254" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G254" t="n">
         <v>0.877</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.645</v>
       </c>
       <c r="H254" t="n">
         <v>0.743</v>
@@ -9102,10 +9102,10 @@
         <v>0.856</v>
       </c>
       <c r="F255" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="G255" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.796</v>
       </c>
       <c r="H255" t="n">
         <v>0.869</v>
@@ -9136,10 +9136,10 @@
         <v>0.696</v>
       </c>
       <c r="F256" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G256" t="n">
         <v>0.794</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.664</v>
       </c>
       <c r="H256" t="n">
         <v>0.723</v>
@@ -9170,10 +9170,10 @@
         <v>0.709</v>
       </c>
       <c r="F257" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G257" t="n">
         <v>0.848</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.664</v>
       </c>
       <c r="H257" t="n">
         <v>0.745</v>
@@ -9204,10 +9204,10 @@
         <v>0.738</v>
       </c>
       <c r="F258" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G258" t="n">
         <v>0.871</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.6879999999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0.769</v>
@@ -9238,10 +9238,10 @@
         <v>0.717</v>
       </c>
       <c r="F259" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G259" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.663</v>
       </c>
       <c r="H259" t="n">
         <v>0.757</v>
@@ -9272,10 +9272,10 @@
         <v>0.696</v>
       </c>
       <c r="F260" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G260" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.644</v>
       </c>
       <c r="H260" t="n">
         <v>0.742</v>
@@ -9306,10 +9306,10 @@
         <v>0.58</v>
       </c>
       <c r="F261" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="G261" t="n">
         <v>0.755</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.5590000000000001</v>
       </c>
       <c r="H261" t="n">
         <v>0.642</v>
@@ -9340,10 +9340,10 @@
         <v>0.681</v>
       </c>
       <c r="F262" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G262" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.643</v>
       </c>
       <c r="H262" t="n">
         <v>0.719</v>
@@ -9374,10 +9374,10 @@
         <v>0.71</v>
       </c>
       <c r="F263" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G263" t="n">
         <v>0.842</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.666</v>
       </c>
       <c r="H263" t="n">
         <v>0.744</v>
@@ -9408,10 +9408,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F264" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G264" t="n">
         <v>0.8090000000000001</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.645</v>
       </c>
       <c r="H264" t="n">
         <v>0.718</v>
@@ -9442,10 +9442,10 @@
         <v>0.669</v>
       </c>
       <c r="F265" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G265" t="n">
         <v>0.801</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.634</v>
       </c>
       <c r="H265" t="n">
         <v>0.708</v>
@@ -9476,10 +9476,10 @@
         <v>0.723</v>
       </c>
       <c r="F266" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G266" t="n">
         <v>0.861</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.675</v>
       </c>
       <c r="H266" t="n">
         <v>0.757</v>
@@ -9510,10 +9510,10 @@
         <v>0.737</v>
       </c>
       <c r="F267" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G267" t="n">
         <v>0.89</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0.772</v>
@@ -9544,10 +9544,10 @@
         <v>0.85</v>
       </c>
       <c r="F268" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G268" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.792</v>
       </c>
       <c r="H268" t="n">
         <v>0.863</v>
@@ -9578,10 +9578,10 @@
         <v>0.863</v>
       </c>
       <c r="F269" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G269" t="n">
         <v>0.946</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H269" t="n">
         <v>0.874</v>
@@ -9612,10 +9612,10 @@
         <v>0.838</v>
       </c>
       <c r="F270" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="G270" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.773</v>
       </c>
       <c r="H270" t="n">
         <v>0.855</v>
@@ -9646,10 +9646,10 @@
         <v>0.712</v>
       </c>
       <c r="F271" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G271" t="n">
         <v>0.878</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.659</v>
       </c>
       <c r="H271" t="n">
         <v>0.753</v>
@@ -9680,10 +9680,10 @@
         <v>0.634</v>
       </c>
       <c r="F272" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G272" t="n">
         <v>0.798</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.601</v>
       </c>
       <c r="H272" t="n">
         <v>0.6860000000000001</v>
@@ -9714,10 +9714,10 @@
         <v>0.674</v>
       </c>
       <c r="F273" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G273" t="n">
         <v>0.824</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.634</v>
       </c>
       <c r="H273" t="n">
         <v>0.717</v>
@@ -9748,10 +9748,10 @@
         <v>0.617</v>
       </c>
       <c r="F274" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G274" t="n">
         <v>0.783</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.588</v>
       </c>
       <c r="H274" t="n">
         <v>0.672</v>
@@ -9782,10 +9782,10 @@
         <v>0.696</v>
       </c>
       <c r="F275" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="G275" t="n">
         <v>0.844</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.652</v>
       </c>
       <c r="H275" t="n">
         <v>0.736</v>
@@ -9816,10 +9816,10 @@
         <v>0.665</v>
       </c>
       <c r="F276" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="G276" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.627</v>
       </c>
       <c r="H276" t="n">
         <v>0.709</v>
@@ -9850,10 +9850,10 @@
         <v>0.708</v>
       </c>
       <c r="F277" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G277" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.665</v>
       </c>
       <c r="H277" t="n">
         <v>0.74</v>
@@ -9884,10 +9884,10 @@
         <v>0.673</v>
       </c>
       <c r="F278" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G278" t="n">
         <v>0.797</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.638</v>
       </c>
       <c r="H278" t="n">
         <v>0.709</v>
@@ -9918,10 +9918,10 @@
         <v>0.668</v>
       </c>
       <c r="F279" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G279" t="n">
         <v>0.825</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.628</v>
       </c>
       <c r="H279" t="n">
         <v>0.713</v>
@@ -9952,10 +9952,10 @@
         <v>0.772</v>
       </c>
       <c r="F280" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="G280" t="n">
         <v>0.968</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.696</v>
       </c>
       <c r="H280" t="n">
         <v>0.8100000000000001</v>
@@ -9986,10 +9986,10 @@
         <v>0.73</v>
       </c>
       <c r="F281" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G281" t="n">
         <v>0.86</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H281" t="n">
         <v>0.761</v>
@@ -10020,10 +10020,10 @@
         <v>0.715</v>
       </c>
       <c r="F282" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G282" t="n">
         <v>0.886</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.66</v>
       </c>
       <c r="H282" t="n">
         <v>0.756</v>
@@ -10054,10 +10054,10 @@
         <v>0.713</v>
       </c>
       <c r="F283" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G283" t="n">
         <v>0.866</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.663</v>
       </c>
       <c r="H283" t="n">
         <v>0.751</v>
@@ -10088,10 +10088,10 @@
         <v>0.673</v>
       </c>
       <c r="F284" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G284" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.629</v>
       </c>
       <c r="H284" t="n">
         <v>0.719</v>
@@ -10122,10 +10122,10 @@
         <v>0.696</v>
       </c>
       <c r="F285" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G285" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.655</v>
       </c>
       <c r="H285" t="n">
         <v>0.731</v>
@@ -10156,10 +10156,10 @@
         <v>0.615</v>
       </c>
       <c r="F286" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G286" t="n">
         <v>0.766</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.588</v>
       </c>
       <c r="H286" t="n">
         <v>0.665</v>
@@ -10190,10 +10190,10 @@
         <v>0.732</v>
       </c>
       <c r="F287" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="G287" t="n">
         <v>0.855</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.6860000000000001</v>
       </c>
       <c r="H287" t="n">
         <v>0.761</v>
@@ -10224,10 +10224,10 @@
         <v>0.694</v>
       </c>
       <c r="F288" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G288" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.646</v>
       </c>
       <c r="H288" t="n">
         <v>0.737</v>
@@ -10258,10 +10258,10 @@
         <v>0.707</v>
       </c>
       <c r="F289" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G289" t="n">
         <v>0.856</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.66</v>
       </c>
       <c r="H289" t="n">
         <v>0.745</v>
@@ -10292,10 +10292,10 @@
         <v>0.678</v>
       </c>
       <c r="F290" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="G290" t="n">
         <v>0.829</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.637</v>
       </c>
       <c r="H290" t="n">
         <v>0.72</v>
@@ -10326,10 +10326,10 @@
         <v>0.705</v>
       </c>
       <c r="F291" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G291" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.661</v>
       </c>
       <c r="H291" t="n">
         <v>0.74</v>
@@ -10360,10 +10360,10 @@
         <v>0.654</v>
       </c>
       <c r="F292" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G292" t="n">
         <v>0.779</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.623</v>
       </c>
       <c r="H292" t="n">
         <v>0.6919999999999999</v>
@@ -10394,10 +10394,10 @@
         <v>0.642</v>
       </c>
       <c r="F293" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G293" t="n">
         <v>0.775</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.612</v>
       </c>
       <c r="H293" t="n">
         <v>0.6840000000000001</v>
@@ -10428,10 +10428,10 @@
         <v>0.716</v>
       </c>
       <c r="F294" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G294" t="n">
         <v>0.8120000000000001</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.681</v>
       </c>
       <c r="H294" t="n">
         <v>0.741</v>
@@ -10462,10 +10462,10 @@
         <v>0.709</v>
       </c>
       <c r="F295" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G295" t="n">
         <v>0.824</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.669</v>
       </c>
       <c r="H295" t="n">
         <v>0.738</v>
@@ -10496,10 +10496,10 @@
         <v>0.866</v>
       </c>
       <c r="F296" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G296" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.8139999999999999</v>
       </c>
       <c r="H296" t="n">
         <v>0.877</v>
@@ -10530,10 +10530,10 @@
         <v>0.638</v>
       </c>
       <c r="F297" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G297" t="n">
         <v>0.786</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.606</v>
       </c>
       <c r="H297" t="n">
         <v>0.6840000000000001</v>
@@ -10564,10 +10564,10 @@
         <v>0.828</v>
       </c>
       <c r="F298" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G298" t="n">
         <v>0.951</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.763</v>
       </c>
       <c r="H298" t="n">
         <v>0.847</v>
@@ -10598,10 +10598,10 @@
         <v>0.838</v>
       </c>
       <c r="F299" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G299" t="n">
         <v>0.951</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.776</v>
       </c>
       <c r="H299" t="n">
         <v>0.855</v>
@@ -10632,10 +10632,10 @@
         <v>0.703</v>
       </c>
       <c r="F300" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G300" t="n">
         <v>0.824</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.664</v>
       </c>
       <c r="H300" t="n">
         <v>0.735</v>
@@ -10666,10 +10666,10 @@
         <v>0.703</v>
       </c>
       <c r="F301" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G301" t="n">
         <v>0.8139999999999999</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.666</v>
       </c>
       <c r="H301" t="n">
         <v>0.733</v>
@@ -10700,10 +10700,10 @@
         <v>0.719</v>
       </c>
       <c r="F302" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G302" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.669</v>
       </c>
       <c r="H302" t="n">
         <v>0.754</v>
@@ -10734,10 +10734,10 @@
         <v>0.751</v>
       </c>
       <c r="F303" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G303" t="n">
         <v>0.914</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.6899999999999999</v>
       </c>
       <c r="H303" t="n">
         <v>0.786</v>
@@ -10768,10 +10768,10 @@
         <v>0.706</v>
       </c>
       <c r="F304" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G304" t="n">
         <v>0.879</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.653</v>
       </c>
       <c r="H304" t="n">
         <v>0.749</v>
@@ -10802,10 +10802,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F305" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G305" t="n">
         <v>0.833</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.651</v>
       </c>
       <c r="H305" t="n">
         <v>0.731</v>
@@ -10836,10 +10836,10 @@
         <v>0.644</v>
       </c>
       <c r="F306" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G306" t="n">
         <v>0.828</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.605</v>
       </c>
       <c r="H306" t="n">
         <v>0.699</v>
@@ -10870,10 +10870,10 @@
         <v>0.847</v>
       </c>
       <c r="F307" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G307" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.782</v>
       </c>
       <c r="H307" t="n">
         <v>0.862</v>
@@ -10904,10 +10904,10 @@
         <v>0.87</v>
       </c>
       <c r="F308" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G308" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H308" t="n">
         <v>0.88</v>
@@ -10938,10 +10938,10 @@
         <v>0.864</v>
       </c>
       <c r="F309" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G309" t="n">
         <v>0.947</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H309" t="n">
         <v>0.874</v>
@@ -10972,10 +10972,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F310" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="G310" t="n">
         <v>0.899</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.627</v>
       </c>
       <c r="H310" t="n">
         <v>0.739</v>
@@ -11006,10 +11006,10 @@
         <v>0.714</v>
       </c>
       <c r="F311" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G311" t="n">
         <v>0.873</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.662</v>
       </c>
       <c r="H311" t="n">
         <v>0.753</v>
@@ -11040,10 +11040,10 @@
         <v>0.615</v>
       </c>
       <c r="F312" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G312" t="n">
         <v>0.746</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.591</v>
       </c>
       <c r="H312" t="n">
         <v>0.66</v>
@@ -11074,10 +11074,10 @@
         <v>0.719</v>
       </c>
       <c r="F313" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G313" t="n">
         <v>0.837</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.677</v>
       </c>
       <c r="H313" t="n">
         <v>0.749</v>
@@ -11108,10 +11108,10 @@
         <v>0.725</v>
       </c>
       <c r="F314" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G314" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.6850000000000001</v>
       </c>
       <c r="H314" t="n">
         <v>0.751</v>
@@ -11142,10 +11142,10 @@
         <v>0.824</v>
       </c>
       <c r="F315" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="G315" t="n">
         <v>0.946</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.761</v>
       </c>
       <c r="H315" t="n">
         <v>0.843</v>
@@ -11176,10 +11176,10 @@
         <v>0.698</v>
       </c>
       <c r="F316" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G316" t="n">
         <v>0.826</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.658</v>
       </c>
       <c r="H316" t="n">
         <v>0.732</v>
@@ -11210,10 +11210,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F317" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G317" t="n">
         <v>0.824</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.653</v>
       </c>
       <c r="H317" t="n">
         <v>0.729</v>
@@ -11244,10 +11244,10 @@
         <v>0.711</v>
       </c>
       <c r="F318" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G318" t="n">
         <v>0.887</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.656</v>
       </c>
       <c r="H318" t="n">
         <v>0.754</v>
@@ -11278,10 +11278,10 @@
         <v>0.707</v>
       </c>
       <c r="F319" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G319" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.653</v>
       </c>
       <c r="H319" t="n">
         <v>0.751</v>
@@ -11312,10 +11312,10 @@
         <v>0.644</v>
       </c>
       <c r="F320" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G320" t="n">
         <v>0.777</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.614</v>
       </c>
       <c r="H320" t="n">
         <v>0.6860000000000001</v>
@@ -11346,10 +11346,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F321" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G321" t="n">
         <v>0.856</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.643</v>
       </c>
       <c r="H321" t="n">
         <v>0.734</v>
@@ -11380,10 +11380,10 @@
         <v>0.836</v>
       </c>
       <c r="F322" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="G322" t="n">
         <v>0.952</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.773</v>
       </c>
       <c r="H322" t="n">
         <v>0.853</v>
@@ -11414,10 +11414,10 @@
         <v>0.698</v>
       </c>
       <c r="F323" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G323" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.657</v>
       </c>
       <c r="H323" t="n">
         <v>0.732</v>
@@ -11448,10 +11448,10 @@
         <v>0.706</v>
       </c>
       <c r="F324" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G324" t="n">
         <v>0.846</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.661</v>
       </c>
       <c r="H324" t="n">
         <v>0.742</v>
@@ -11482,10 +11482,10 @@
         <v>0.68</v>
       </c>
       <c r="F325" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="G325" t="n">
         <v>0.771</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.652</v>
       </c>
       <c r="H325" t="n">
         <v>0.707</v>
@@ -11516,10 +11516,10 @@
         <v>0.598</v>
       </c>
       <c r="F326" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G326" t="n">
         <v>0.727</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.578</v>
       </c>
       <c r="H326" t="n">
         <v>0.644</v>
@@ -11550,10 +11550,10 @@
         <v>0.611</v>
       </c>
       <c r="F327" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G327" t="n">
         <v>0.7</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.594</v>
       </c>
       <c r="H327" t="n">
         <v>0.643</v>
@@ -11584,10 +11584,10 @@
         <v>0.642</v>
       </c>
       <c r="F328" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G328" t="n">
         <v>0.783</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.61</v>
       </c>
       <c r="H328" t="n">
         <v>0.6860000000000001</v>
@@ -11618,10 +11618,10 @@
         <v>0.639</v>
       </c>
       <c r="F329" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="G329" t="n">
         <v>0.8159999999999999</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.603</v>
       </c>
       <c r="H329" t="n">
         <v>0.694</v>
@@ -11652,10 +11652,10 @@
         <v>0.636</v>
       </c>
       <c r="F330" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G330" t="n">
         <v>0.776</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.606</v>
       </c>
       <c r="H330" t="n">
         <v>0.681</v>
@@ -11686,10 +11686,10 @@
         <v>0.614</v>
       </c>
       <c r="F331" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="G331" t="n">
         <v>0.763</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.587</v>
       </c>
       <c r="H331" t="n">
         <v>0.664</v>
@@ -11720,10 +11720,10 @@
         <v>0.701</v>
       </c>
       <c r="F332" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G332" t="n">
         <v>0.855</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.653</v>
       </c>
       <c r="H332" t="n">
         <v>0.74</v>
@@ -11754,10 +11754,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F333" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G333" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.636</v>
       </c>
       <c r="H333" t="n">
         <v>0.739</v>
@@ -11788,10 +11788,10 @@
         <v>0.629</v>
       </c>
       <c r="F334" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G334" t="n">
         <v>0.765</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.602</v>
       </c>
       <c r="H334" t="n">
         <v>0.674</v>
@@ -11822,10 +11822,10 @@
         <v>0.86</v>
       </c>
       <c r="F335" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G335" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.803</v>
       </c>
       <c r="H335" t="n">
         <v>0.872</v>
@@ -11856,10 +11856,10 @@
         <v>0.704</v>
       </c>
       <c r="F336" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G336" t="n">
         <v>0.857</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.656</v>
       </c>
       <c r="H336" t="n">
         <v>0.743</v>
@@ -11890,10 +11890,10 @@
         <v>0.716</v>
       </c>
       <c r="F337" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G337" t="n">
         <v>0.875</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.664</v>
       </c>
       <c r="H337" t="n">
         <v>0.755</v>
@@ -11924,10 +11924,10 @@
         <v>0.699</v>
       </c>
       <c r="F338" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G338" t="n">
         <v>0.86</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.651</v>
       </c>
       <c r="H338" t="n">
         <v>0.741</v>
@@ -11958,10 +11958,10 @@
         <v>0.68</v>
       </c>
       <c r="F339" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G339" t="n">
         <v>0.829</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.639</v>
       </c>
       <c r="H339" t="n">
         <v>0.722</v>
@@ -11992,10 +11992,10 @@
         <v>0.738</v>
       </c>
       <c r="F340" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G340" t="n">
         <v>0.884</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.6840000000000001</v>
       </c>
       <c r="H340" t="n">
         <v>0.771</v>
@@ -12026,10 +12026,10 @@
         <v>0.717</v>
       </c>
       <c r="F341" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G341" t="n">
         <v>0.87</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.666</v>
       </c>
       <c r="H341" t="n">
         <v>0.754</v>
@@ -12060,10 +12060,10 @@
         <v>0.598</v>
       </c>
       <c r="F342" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G342" t="n">
         <v>0.772</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.572</v>
       </c>
       <c r="H342" t="n">
         <v>0.657</v>
@@ -12094,10 +12094,10 @@
         <v>0.711</v>
       </c>
       <c r="F343" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G343" t="n">
         <v>0.867</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.661</v>
       </c>
       <c r="H343" t="n">
         <v>0.75</v>
@@ -12128,10 +12128,10 @@
         <v>0.671</v>
       </c>
       <c r="F344" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G344" t="n">
         <v>0.804</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.635</v>
       </c>
       <c r="H344" t="n">
         <v>0.71</v>
@@ -12162,10 +12162,10 @@
         <v>0.639</v>
       </c>
       <c r="F345" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G345" t="n">
         <v>0.796</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.606</v>
       </c>
       <c r="H345" t="n">
         <v>0.6879999999999999</v>
@@ -12196,10 +12196,10 @@
         <v>0.868</v>
       </c>
       <c r="F346" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G346" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.8129999999999999</v>
       </c>
       <c r="H346" t="n">
         <v>0.879</v>
@@ -12230,10 +12230,10 @@
         <v>0.72</v>
       </c>
       <c r="F347" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G347" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.666</v>
       </c>
       <c r="H347" t="n">
         <v>0.759</v>
@@ -12264,10 +12264,10 @@
         <v>0.582</v>
       </c>
       <c r="F348" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G348" t="n">
         <v>0.73</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.5639999999999999</v>
       </c>
       <c r="H348" t="n">
         <v>0.636</v>
@@ -12298,10 +12298,10 @@
         <v>0.62</v>
       </c>
       <c r="F349" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G349" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.605</v>
       </c>
       <c r="H349" t="n">
         <v>0.645</v>
@@ -12332,10 +12332,10 @@
         <v>0.733</v>
       </c>
       <c r="F350" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="G350" t="n">
         <v>0.887</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.678</v>
       </c>
       <c r="H350" t="n">
         <v>0.769</v>
@@ -12366,10 +12366,10 @@
         <v>0.6870000000000001</v>
       </c>
       <c r="F351" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G351" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.646</v>
       </c>
       <c r="H351" t="n">
         <v>0.725</v>
@@ -12400,10 +12400,10 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="F352" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="G352" t="n">
         <v>0.828</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.641</v>
       </c>
       <c r="H352" t="n">
         <v>0.723</v>
@@ -12434,10 +12434,10 @@
         <v>0.594</v>
       </c>
       <c r="F353" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G353" t="n">
         <v>0.703</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.577</v>
       </c>
       <c r="H353" t="n">
         <v>0.634</v>
@@ -12468,10 +12468,10 @@
         <v>0.582</v>
       </c>
       <c r="F354" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G354" t="n">
         <v>0.743</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.5620000000000001</v>
       </c>
       <c r="H354" t="n">
         <v>0.64</v>
@@ -12502,10 +12502,10 @@
         <v>0.598</v>
       </c>
       <c r="F355" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G355" t="n">
         <v>0.778</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.572</v>
       </c>
       <c r="H355" t="n">
         <v>0.659</v>
@@ -12536,10 +12536,10 @@
         <v>0.648</v>
       </c>
       <c r="F356" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G356" t="n">
         <v>0.778</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.617</v>
       </c>
       <c r="H356" t="n">
         <v>0.6879999999999999</v>
@@ -12570,10 +12570,10 @@
         <v>0.805</v>
       </c>
       <c r="F357" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="G357" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.732</v>
       </c>
       <c r="H357" t="n">
         <v>0.831</v>
@@ -12604,10 +12604,10 @@
         <v>0.719</v>
       </c>
       <c r="F358" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G358" t="n">
         <v>0.822</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H358" t="n">
         <v>0.745</v>
@@ -12638,10 +12638,10 @@
         <v>0.736</v>
       </c>
       <c r="F359" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G359" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.6879999999999999</v>
       </c>
       <c r="H359" t="n">
         <v>0.766</v>
@@ -12672,10 +12672,10 @@
         <v>0.707</v>
       </c>
       <c r="F360" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G360" t="n">
         <v>0.851</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.661</v>
       </c>
       <c r="H360" t="n">
         <v>0.744</v>
@@ -12706,10 +12706,10 @@
         <v>0.738</v>
       </c>
       <c r="F361" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G361" t="n">
         <v>0.895</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.681</v>
       </c>
       <c r="H361" t="n">
         <v>0.773</v>
@@ -12740,10 +12740,10 @@
         <v>0.86</v>
       </c>
       <c r="F362" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G362" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.803</v>
       </c>
       <c r="H362" t="n">
         <v>0.872</v>
@@ -12774,10 +12774,10 @@
         <v>0.606</v>
       </c>
       <c r="F363" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G363" t="n">
         <v>0.79</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.577</v>
       </c>
       <c r="H363" t="n">
         <v>0.667</v>
@@ -12808,10 +12808,10 @@
         <v>0.608</v>
       </c>
       <c r="F364" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="G364" t="n">
         <v>0.701</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.591</v>
       </c>
       <c r="H364" t="n">
         <v>0.641</v>
@@ -12842,10 +12842,10 @@
         <v>0.789</v>
       </c>
       <c r="F365" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="G365" t="n">
         <v>0.964</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.714</v>
       </c>
       <c r="H365" t="n">
         <v>0.82</v>
@@ -12876,10 +12876,10 @@
         <v>0.795</v>
       </c>
       <c r="F366" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G366" t="n">
         <v>0.965</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.72</v>
       </c>
       <c r="H366" t="n">
         <v>0.825</v>
@@ -12910,10 +12910,10 @@
         <v>0.667</v>
       </c>
       <c r="F367" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G367" t="n">
         <v>0.822</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.628</v>
       </c>
       <c r="H367" t="n">
         <v>0.712</v>
@@ -12944,10 +12944,10 @@
         <v>0.609</v>
       </c>
       <c r="F368" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G368" t="n">
         <v>0.78</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.581</v>
       </c>
       <c r="H368" t="n">
         <v>0.666</v>
@@ -12978,10 +12978,10 @@
         <v>0.642</v>
       </c>
       <c r="F369" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="G369" t="n">
         <v>0.754</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.616</v>
       </c>
       <c r="H369" t="n">
         <v>0.678</v>
@@ -13012,10 +13012,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F370" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G370" t="n">
         <v>0.843</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.64</v>
       </c>
       <c r="H370" t="n">
         <v>0.728</v>
@@ -13046,10 +13046,10 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="F371" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G371" t="n">
         <v>0.825</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.651</v>
       </c>
       <c r="H371" t="n">
         <v>0.728</v>
@@ -13080,10 +13080,10 @@
         <v>0.858</v>
       </c>
       <c r="F372" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G372" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.8</v>
       </c>
       <c r="H372" t="n">
         <v>0.871</v>
@@ -13114,10 +13114,10 @@
         <v>0.707</v>
       </c>
       <c r="F373" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G373" t="n">
         <v>0.884</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.653</v>
       </c>
       <c r="H373" t="n">
         <v>0.751</v>
@@ -13148,10 +13148,10 @@
         <v>0.861</v>
       </c>
       <c r="F374" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G374" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.803</v>
       </c>
       <c r="H374" t="n">
         <v>0.873</v>
@@ -13182,10 +13182,10 @@
         <v>0.734</v>
       </c>
       <c r="F375" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G375" t="n">
         <v>0.902</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.675</v>
       </c>
       <c r="H375" t="n">
         <v>0.772</v>
@@ -13216,10 +13216,10 @@
         <v>0.734</v>
       </c>
       <c r="F376" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="G376" t="n">
         <v>0.905</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.674</v>
       </c>
       <c r="H376" t="n">
         <v>0.773</v>
@@ -13250,10 +13250,10 @@
         <v>0.87</v>
       </c>
       <c r="F377" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G377" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H377" t="n">
         <v>0.88</v>
@@ -13284,10 +13284,10 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="F378" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G378" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.65</v>
       </c>
       <c r="H378" t="n">
         <v>0.729</v>
@@ -13318,10 +13318,10 @@
         <v>0.757</v>
       </c>
       <c r="F379" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="G379" t="n">
         <v>0.872</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.709</v>
       </c>
       <c r="H379" t="n">
         <v>0.782</v>
@@ -13352,10 +13352,10 @@
         <v>0.617</v>
       </c>
       <c r="F380" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="G380" t="n">
         <v>0.752</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.592</v>
       </c>
       <c r="H380" t="n">
         <v>0.662</v>
@@ -13386,10 +13386,10 @@
         <v>0.713</v>
       </c>
       <c r="F381" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G381" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.665</v>
       </c>
       <c r="H381" t="n">
         <v>0.75</v>
@@ -13420,10 +13420,10 @@
         <v>0.606</v>
       </c>
       <c r="F382" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G382" t="n">
         <v>0.768</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.58</v>
       </c>
       <c r="H382" t="n">
         <v>0.661</v>
@@ -13454,10 +13454,10 @@
         <v>0.703</v>
       </c>
       <c r="F383" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G383" t="n">
         <v>0.857</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.655</v>
       </c>
       <c r="H383" t="n">
         <v>0.743</v>
@@ -13488,10 +13488,10 @@
         <v>0.722</v>
       </c>
       <c r="F384" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G384" t="n">
         <v>0.896</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.665</v>
       </c>
       <c r="H384" t="n">
         <v>0.763</v>
@@ -13522,10 +13522,10 @@
         <v>0.735</v>
       </c>
       <c r="F385" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G385" t="n">
         <v>0.849</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.6919999999999999</v>
       </c>
       <c r="H385" t="n">
         <v>0.763</v>
@@ -13556,10 +13556,10 @@
         <v>0.857</v>
       </c>
       <c r="F386" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G386" t="n">
         <v>0.962</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.795</v>
       </c>
       <c r="H386" t="n">
         <v>0.871</v>
@@ -13590,10 +13590,10 @@
         <v>0.724</v>
       </c>
       <c r="F387" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G387" t="n">
         <v>0.873</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.673</v>
       </c>
       <c r="H387" t="n">
         <v>0.76</v>
@@ -13624,10 +13624,10 @@
         <v>0.732</v>
       </c>
       <c r="F388" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G388" t="n">
         <v>0.872</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H388" t="n">
         <v>0.765</v>
@@ -13658,10 +13658,10 @@
         <v>0.705</v>
       </c>
       <c r="F389" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G389" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.655</v>
       </c>
       <c r="H389" t="n">
         <v>0.745</v>
@@ -13692,10 +13692,10 @@
         <v>0.757</v>
       </c>
       <c r="F390" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G390" t="n">
         <v>0.89</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.703</v>
       </c>
       <c r="H390" t="n">
         <v>0.786</v>
@@ -13726,10 +13726,10 @@
         <v>0.705</v>
       </c>
       <c r="F391" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G391" t="n">
         <v>0.87</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.655</v>
       </c>
       <c r="H391" t="n">
         <v>0.747</v>
@@ -13760,10 +13760,10 @@
         <v>0.717</v>
       </c>
       <c r="F392" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G392" t="n">
         <v>0.91</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.656</v>
       </c>
       <c r="H392" t="n">
         <v>0.762</v>
@@ -13794,10 +13794,10 @@
         <v>0.871</v>
       </c>
       <c r="F393" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G393" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.8179999999999999</v>
       </c>
       <c r="H393" t="n">
         <v>0.881</v>
@@ -13828,10 +13828,10 @@
         <v>0.674</v>
       </c>
       <c r="F394" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G394" t="n">
         <v>0.853</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.628</v>
       </c>
       <c r="H394" t="n">
         <v>0.723</v>
@@ -13862,10 +13862,10 @@
         <v>0.68</v>
       </c>
       <c r="F395" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G395" t="n">
         <v>0.791</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.648</v>
       </c>
       <c r="H395" t="n">
         <v>0.712</v>
@@ -13896,10 +13896,10 @@
         <v>0.724</v>
       </c>
       <c r="F396" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="G396" t="n">
         <v>0.868</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.674</v>
       </c>
       <c r="H396" t="n">
         <v>0.759</v>
@@ -13930,10 +13930,10 @@
         <v>0.734</v>
       </c>
       <c r="F397" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G397" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.681</v>
       </c>
       <c r="H397" t="n">
         <v>0.768</v>
@@ -13964,10 +13964,10 @@
         <v>0.72</v>
       </c>
       <c r="F398" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G398" t="n">
         <v>0.868</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.67</v>
       </c>
       <c r="H398" t="n">
         <v>0.756</v>
@@ -13998,10 +13998,10 @@
         <v>0.861</v>
       </c>
       <c r="F399" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="G399" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.804</v>
       </c>
       <c r="H399" t="n">
         <v>0.873</v>
@@ -14032,10 +14032,10 @@
         <v>0.736</v>
       </c>
       <c r="F400" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="G400" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.6830000000000001</v>
       </c>
       <c r="H400" t="n">
         <v>0.77</v>
@@ -14066,10 +14066,10 @@
         <v>0.708</v>
       </c>
       <c r="F401" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G401" t="n">
         <v>0.869</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.657</v>
       </c>
       <c r="H401" t="n">
         <v>0.748</v>
@@ -14100,10 +14100,10 @@
         <v>0.613</v>
       </c>
       <c r="F402" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G402" t="n">
         <v>0.775</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.585</v>
       </c>
       <c r="H402" t="n">
         <v>0.667</v>
@@ -14134,10 +14134,10 @@
         <v>0.857</v>
       </c>
       <c r="F403" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="G403" t="n">
         <v>0.963</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.794</v>
       </c>
       <c r="H403" t="n">
         <v>0.87</v>
@@ -14168,10 +14168,10 @@
         <v>0.671</v>
       </c>
       <c r="F404" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G404" t="n">
         <v>0.748</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.648</v>
       </c>
       <c r="H404" t="n">
         <v>0.694</v>
@@ -14202,10 +14202,10 @@
         <v>0.863</v>
       </c>
       <c r="F405" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G405" t="n">
         <v>0.948</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.8100000000000001</v>
       </c>
       <c r="H405" t="n">
         <v>0.874</v>
@@ -14236,10 +14236,10 @@
         <v>0.701</v>
       </c>
       <c r="F406" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G406" t="n">
         <v>0.869</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.65</v>
       </c>
       <c r="H406" t="n">
         <v>0.744</v>
@@ -14270,10 +14270,10 @@
         <v>0.719</v>
       </c>
       <c r="F407" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G407" t="n">
         <v>0.865</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.67</v>
       </c>
       <c r="H407" t="n">
         <v>0.755</v>
@@ -14304,10 +14304,10 @@
         <v>0.868</v>
       </c>
       <c r="F408" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G408" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H408" t="n">
         <v>0.878</v>
@@ -14338,10 +14338,10 @@
         <v>0.647</v>
       </c>
       <c r="F409" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G409" t="n">
         <v>0.8070000000000001</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.611</v>
       </c>
       <c r="H409" t="n">
         <v>0.695</v>
@@ -14372,10 +14372,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F410" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G410" t="n">
         <v>0.847</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.643</v>
       </c>
       <c r="H410" t="n">
         <v>0.731</v>
@@ -14406,10 +14406,10 @@
         <v>0.597</v>
       </c>
       <c r="F411" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G411" t="n">
         <v>0.723</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.577</v>
       </c>
       <c r="H411" t="n">
         <v>0.642</v>
@@ -14440,10 +14440,10 @@
         <v>0.709</v>
       </c>
       <c r="F412" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G412" t="n">
         <v>0.843</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.665</v>
       </c>
       <c r="H412" t="n">
         <v>0.743</v>
@@ -14474,10 +14474,10 @@
         <v>0.696</v>
       </c>
       <c r="F413" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G413" t="n">
         <v>0.787</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.666</v>
       </c>
       <c r="H413" t="n">
         <v>0.721</v>
@@ -14508,10 +14508,10 @@
         <v>0.73</v>
       </c>
       <c r="F414" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="G414" t="n">
         <v>0.857</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.6830000000000001</v>
       </c>
       <c r="H414" t="n">
         <v>0.76</v>
@@ -14542,10 +14542,10 @@
         <v>0.708</v>
       </c>
       <c r="F415" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G415" t="n">
         <v>0.833</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.667</v>
       </c>
       <c r="H415" t="n">
         <v>0.741</v>
@@ -14576,10 +14576,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F416" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G416" t="n">
         <v>0.837</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.646</v>
       </c>
       <c r="H416" t="n">
         <v>0.729</v>
@@ -14610,10 +14610,10 @@
         <v>0.675</v>
       </c>
       <c r="F417" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G417" t="n">
         <v>0.824</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.635</v>
       </c>
       <c r="H417" t="n">
         <v>0.717</v>
@@ -14644,10 +14644,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F418" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G418" t="n">
         <v>0.8</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.659</v>
       </c>
       <c r="H418" t="n">
         <v>0.723</v>
@@ -14678,10 +14678,10 @@
         <v>0.842</v>
       </c>
       <c r="F419" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="G419" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.779</v>
       </c>
       <c r="H419" t="n">
         <v>0.857</v>
@@ -14712,10 +14712,10 @@
         <v>0.602</v>
       </c>
       <c r="F420" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G420" t="n">
         <v>0.747</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.579</v>
       </c>
       <c r="H420" t="n">
         <v>0.652</v>
@@ -14746,10 +14746,10 @@
         <v>0.663</v>
       </c>
       <c r="F421" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G421" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.621</v>
       </c>
       <c r="H421" t="n">
         <v>0.712</v>
@@ -14780,10 +14780,10 @@
         <v>0.611</v>
       </c>
       <c r="F422" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G422" t="n">
         <v>0.79</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.581</v>
       </c>
       <c r="H422" t="n">
         <v>0.67</v>
@@ -14814,10 +14814,10 @@
         <v>0.63</v>
       </c>
       <c r="F423" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G423" t="n">
         <v>0.8110000000000001</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.596</v>
       </c>
       <c r="H423" t="n">
         <v>0.6870000000000001</v>
@@ -14848,10 +14848,10 @@
         <v>0.851</v>
       </c>
       <c r="F424" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G424" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.792</v>
       </c>
       <c r="H424" t="n">
         <v>0.865</v>
@@ -14882,10 +14882,10 @@
         <v>0.632</v>
       </c>
       <c r="F425" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="G425" t="n">
         <v>0.8129999999999999</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.597</v>
       </c>
       <c r="H425" t="n">
         <v>0.6879999999999999</v>
@@ -14916,10 +14916,10 @@
         <v>0.698</v>
       </c>
       <c r="F426" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G426" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.654</v>
       </c>
       <c r="H426" t="n">
         <v>0.735</v>
@@ -14950,10 +14950,10 @@
         <v>0.713</v>
       </c>
       <c r="F427" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G427" t="n">
         <v>0.858</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.666</v>
       </c>
       <c r="H427" t="n">
         <v>0.75</v>
@@ -14984,10 +14984,10 @@
         <v>0.679</v>
       </c>
       <c r="F428" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="G428" t="n">
         <v>0.833</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.637</v>
       </c>
       <c r="H428" t="n">
         <v>0.722</v>
@@ -15018,10 +15018,10 @@
         <v>0.675</v>
       </c>
       <c r="F429" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G429" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.633</v>
       </c>
       <c r="H429" t="n">
         <v>0.719</v>
@@ -15052,10 +15052,10 @@
         <v>0.726</v>
       </c>
       <c r="F430" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="G430" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.6870000000000001</v>
       </c>
       <c r="H430" t="n">
         <v>0.752</v>
@@ -15086,10 +15086,10 @@
         <v>0.674</v>
       </c>
       <c r="F431" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G431" t="n">
         <v>0.822</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.634</v>
       </c>
       <c r="H431" t="n">
         <v>0.716</v>
@@ -15120,10 +15120,10 @@
         <v>0.673</v>
       </c>
       <c r="F432" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G432" t="n">
         <v>0.82</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.634</v>
       </c>
       <c r="H432" t="n">
         <v>0.715</v>
@@ -15154,10 +15154,10 @@
         <v>0.669</v>
       </c>
       <c r="F433" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G433" t="n">
         <v>0.797</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.635</v>
       </c>
       <c r="H433" t="n">
         <v>0.707</v>
@@ -15188,10 +15188,10 @@
         <v>0.713</v>
       </c>
       <c r="F434" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G434" t="n">
         <v>0.89</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.657</v>
       </c>
       <c r="H434" t="n">
         <v>0.756</v>
@@ -15222,10 +15222,10 @@
         <v>0.71</v>
       </c>
       <c r="F435" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G435" t="n">
         <v>0.856</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.663</v>
       </c>
       <c r="H435" t="n">
         <v>0.747</v>
@@ -15256,10 +15256,10 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="F436" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G436" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.643</v>
       </c>
       <c r="H436" t="n">
         <v>0.737</v>
@@ -15290,10 +15290,10 @@
         <v>0.61</v>
       </c>
       <c r="F437" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G437" t="n">
         <v>0.772</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.583</v>
       </c>
       <c r="H437" t="n">
         <v>0.664</v>
@@ -15324,10 +15324,10 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="F438" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G438" t="n">
         <v>0.8080000000000001</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.647</v>
       </c>
       <c r="H438" t="n">
         <v>0.719</v>
@@ -15358,10 +15358,10 @@
         <v>0.705</v>
       </c>
       <c r="F439" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G439" t="n">
         <v>0.836</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.662</v>
       </c>
       <c r="H439" t="n">
         <v>0.739</v>
@@ -15392,10 +15392,10 @@
         <v>0.694</v>
       </c>
       <c r="F440" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="G440" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.652</v>
       </c>
       <c r="H440" t="n">
         <v>0.732</v>
@@ -15426,10 +15426,10 @@
         <v>0.598</v>
       </c>
       <c r="F441" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G441" t="n">
         <v>0.731</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.577</v>
       </c>
       <c r="H441" t="n">
         <v>0.645</v>
@@ -15460,10 +15460,10 @@
         <v>0.739</v>
       </c>
       <c r="F442" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G442" t="n">
         <v>0.901</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.681</v>
       </c>
       <c r="H442" t="n">
         <v>0.776</v>
@@ -15494,10 +15494,10 @@
         <v>0.847</v>
       </c>
       <c r="F443" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="G443" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.784</v>
       </c>
       <c r="H443" t="n">
         <v>0.863</v>
@@ -15528,10 +15528,10 @@
         <v>0.715</v>
       </c>
       <c r="F444" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G444" t="n">
         <v>0.879</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.662</v>
       </c>
       <c r="H444" t="n">
         <v>0.755</v>
@@ -15562,10 +15562,10 @@
         <v>0.727</v>
       </c>
       <c r="F445" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G445" t="n">
         <v>0.891</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.671</v>
       </c>
       <c r="H445" t="n">
         <v>0.766</v>
@@ -15596,10 +15596,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F446" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="G446" t="n">
         <v>0.875</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.637</v>
       </c>
       <c r="H446" t="n">
         <v>0.737</v>
@@ -15630,10 +15630,10 @@
         <v>0.699</v>
       </c>
       <c r="F447" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G447" t="n">
         <v>0.843</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.654</v>
       </c>
       <c r="H447" t="n">
         <v>0.737</v>
@@ -15664,10 +15664,10 @@
         <v>0.704</v>
       </c>
       <c r="F448" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G448" t="n">
         <v>0.854</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.657</v>
       </c>
       <c r="H448" t="n">
         <v>0.743</v>
@@ -15698,10 +15698,10 @@
         <v>0.588</v>
       </c>
       <c r="F449" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G449" t="n">
         <v>0.7</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.572</v>
       </c>
       <c r="H449" t="n">
         <v>0.63</v>
@@ -15732,10 +15732,10 @@
         <v>0.717</v>
       </c>
       <c r="F450" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G450" t="n">
         <v>0.91</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.656</v>
       </c>
       <c r="H450" t="n">
         <v>0.762</v>
@@ -15766,10 +15766,10 @@
         <v>0.803</v>
       </c>
       <c r="F451" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="G451" t="n">
         <v>0.967</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.729</v>
       </c>
       <c r="H451" t="n">
         <v>0.831</v>
@@ -15800,10 +15800,10 @@
         <v>0.719</v>
       </c>
       <c r="F452" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G452" t="n">
         <v>0.876</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.666</v>
       </c>
       <c r="H452" t="n">
         <v>0.757</v>
@@ -15834,10 +15834,10 @@
         <v>0.61</v>
       </c>
       <c r="F453" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G453" t="n">
         <v>0.784</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.582</v>
       </c>
       <c r="H453" t="n">
         <v>0.668</v>
@@ -15868,10 +15868,10 @@
         <v>0.85</v>
       </c>
       <c r="F454" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G454" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.788</v>
       </c>
       <c r="H454" t="n">
         <v>0.865</v>
@@ -15902,10 +15902,10 @@
         <v>0.654</v>
       </c>
       <c r="F455" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G455" t="n">
         <v>0.771</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.625</v>
       </c>
       <c r="H455" t="n">
         <v>0.6899999999999999</v>
@@ -15936,10 +15936,10 @@
         <v>0.675</v>
       </c>
       <c r="F456" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G456" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.635</v>
       </c>
       <c r="H456" t="n">
         <v>0.718</v>
@@ -15970,10 +15970,10 @@
         <v>0.708</v>
       </c>
       <c r="F457" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G457" t="n">
         <v>0.876</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.656</v>
       </c>
       <c r="H457" t="n">
         <v>0.75</v>
@@ -16004,10 +16004,10 @@
         <v>0.675</v>
       </c>
       <c r="F458" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G458" t="n">
         <v>0.85</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.63</v>
       </c>
       <c r="H458" t="n">
         <v>0.724</v>
@@ -16038,10 +16038,10 @@
         <v>0.72</v>
       </c>
       <c r="F459" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G459" t="n">
         <v>0.877</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.668</v>
       </c>
       <c r="H459" t="n">
         <v>0.758</v>
@@ -16072,10 +16072,10 @@
         <v>0.87</v>
       </c>
       <c r="F460" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G460" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.8139999999999999</v>
       </c>
       <c r="H460" t="n">
         <v>0.881</v>
@@ -16106,10 +16106,10 @@
         <v>0.819</v>
       </c>
       <c r="F461" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G461" t="n">
         <v>0.948</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.753</v>
       </c>
       <c r="H461" t="n">
         <v>0.839</v>
@@ -16140,10 +16140,10 @@
         <v>0.645</v>
       </c>
       <c r="F462" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G462" t="n">
         <v>0.766</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.617</v>
       </c>
       <c r="H462" t="n">
         <v>0.6830000000000001</v>
@@ -16174,10 +16174,10 @@
         <v>0.595</v>
       </c>
       <c r="F463" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G463" t="n">
         <v>0.769</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.57</v>
       </c>
       <c r="H463" t="n">
         <v>0.655</v>
@@ -16208,10 +16208,10 @@
         <v>0.824</v>
       </c>
       <c r="F464" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G464" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.755</v>
       </c>
       <c r="H464" t="n">
         <v>0.844</v>
@@ -16242,10 +16242,10 @@
         <v>0.668</v>
       </c>
       <c r="F465" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G465" t="n">
         <v>0.8169999999999999</v>
-      </c>
-      <c r="G465" t="n">
-        <v>0.629</v>
       </c>
       <c r="H465" t="n">
         <v>0.711</v>
@@ -16276,10 +16276,10 @@
         <v>0.592</v>
       </c>
       <c r="F466" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="G466" t="n">
         <v>0.719</v>
-      </c>
-      <c r="G466" t="n">
-        <v>0.573</v>
       </c>
       <c r="H466" t="n">
         <v>0.638</v>
@@ -16310,10 +16310,10 @@
         <v>0.613</v>
       </c>
       <c r="F467" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="G467" t="n">
         <v>0.783</v>
-      </c>
-      <c r="G467" t="n">
-        <v>0.584</v>
       </c>
       <c r="H467" t="n">
         <v>0.669</v>
@@ -16344,10 +16344,10 @@
         <v>0.743</v>
       </c>
       <c r="F468" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G468" t="n">
         <v>0.887</v>
-      </c>
-      <c r="G468" t="n">
-        <v>0.6879999999999999</v>
       </c>
       <c r="H468" t="n">
         <v>0.775</v>
@@ -16378,10 +16378,10 @@
         <v>0.579</v>
       </c>
       <c r="F469" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="G469" t="n">
         <v>0.761</v>
-      </c>
-      <c r="G469" t="n">
-        <v>0.5580000000000001</v>
       </c>
       <c r="H469" t="n">
         <v>0.644</v>
@@ -16412,10 +16412,10 @@
         <v>0.6</v>
       </c>
       <c r="F470" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G470" t="n">
         <v>0.6840000000000001</v>
-      </c>
-      <c r="G470" t="n">
-        <v>0.586</v>
       </c>
       <c r="H470" t="n">
         <v>0.631</v>
@@ -16446,10 +16446,10 @@
         <v>0.719</v>
       </c>
       <c r="F471" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G471" t="n">
         <v>0.864</v>
-      </c>
-      <c r="G471" t="n">
-        <v>0.67</v>
       </c>
       <c r="H471" t="n">
         <v>0.755</v>
@@ -16480,10 +16480,10 @@
         <v>0.715</v>
       </c>
       <c r="F472" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G472" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G472" t="n">
-        <v>0.661</v>
       </c>
       <c r="H472" t="n">
         <v>0.755</v>
@@ -16514,10 +16514,10 @@
         <v>0.73</v>
       </c>
       <c r="F473" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G473" t="n">
         <v>0.898</v>
-      </c>
-      <c r="G473" t="n">
-        <v>0.672</v>
       </c>
       <c r="H473" t="n">
         <v>0.769</v>
@@ -16548,10 +16548,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F474" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G474" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G474" t="n">
-        <v>0.651</v>
       </c>
       <c r="H474" t="n">
         <v>0.731</v>
@@ -16582,10 +16582,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="F475" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G475" t="n">
         <v>0.848</v>
-      </c>
-      <c r="G475" t="n">
-        <v>0.639</v>
       </c>
       <c r="H475" t="n">
         <v>0.729</v>
@@ -16616,10 +16616,10 @@
         <v>0.869</v>
       </c>
       <c r="F476" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G476" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G476" t="n">
-        <v>0.8159999999999999</v>
       </c>
       <c r="H476" t="n">
         <v>0.879</v>
@@ -16650,10 +16650,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="F477" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G477" t="n">
         <v>0.902</v>
-      </c>
-      <c r="G477" t="n">
-        <v>0.629</v>
       </c>
       <c r="H477" t="n">
         <v>0.741</v>
@@ -16684,10 +16684,10 @@
         <v>0.746</v>
       </c>
       <c r="F478" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G478" t="n">
         <v>0.98</v>
-      </c>
-      <c r="G478" t="n">
-        <v>0.668</v>
       </c>
       <c r="H478" t="n">
         <v>0.794</v>
@@ -16718,10 +16718,10 @@
         <v>0.796</v>
       </c>
       <c r="F479" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G479" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G479" t="n">
-        <v>0.722</v>
       </c>
       <c r="H479" t="n">
         <v>0.824</v>
@@ -16752,10 +16752,10 @@
         <v>0.712</v>
       </c>
       <c r="F480" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G480" t="n">
         <v>0.893</v>
-      </c>
-      <c r="G480" t="n">
-        <v>0.655</v>
       </c>
       <c r="H480" t="n">
         <v>0.756</v>
@@ -16786,10 +16786,10 @@
         <v>0.709</v>
       </c>
       <c r="F481" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G481" t="n">
         <v>0.865</v>
-      </c>
-      <c r="G481" t="n">
-        <v>0.659</v>
       </c>
       <c r="H481" t="n">
         <v>0.748</v>
@@ -16820,10 +16820,10 @@
         <v>0.616</v>
       </c>
       <c r="F482" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G482" t="n">
         <v>0.787</v>
-      </c>
-      <c r="G482" t="n">
-        <v>0.586</v>
       </c>
       <c r="H482" t="n">
         <v>0.672</v>
@@ -16854,10 +16854,10 @@
         <v>0.733</v>
       </c>
       <c r="F483" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G483" t="n">
         <v>0.873</v>
-      </c>
-      <c r="G483" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H483" t="n">
         <v>0.766</v>
@@ -16888,10 +16888,10 @@
         <v>0.698</v>
       </c>
       <c r="F484" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G484" t="n">
         <v>0.844</v>
-      </c>
-      <c r="G484" t="n">
-        <v>0.653</v>
       </c>
       <c r="H484" t="n">
         <v>0.736</v>
@@ -16922,10 +16922,10 @@
         <v>0.613</v>
       </c>
       <c r="F485" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G485" t="n">
         <v>0.792</v>
-      </c>
-      <c r="G485" t="n">
-        <v>0.583</v>
       </c>
       <c r="H485" t="n">
         <v>0.672</v>
@@ -16956,10 +16956,10 @@
         <v>0.612</v>
       </c>
       <c r="F486" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G486" t="n">
         <v>0.769</v>
-      </c>
-      <c r="G486" t="n">
-        <v>0.585</v>
       </c>
       <c r="H486" t="n">
         <v>0.664</v>
@@ -16990,10 +16990,10 @@
         <v>0.658</v>
       </c>
       <c r="F487" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="G487" t="n">
         <v>0.858</v>
-      </c>
-      <c r="G487" t="n">
-        <v>0.613</v>
       </c>
       <c r="H487" t="n">
         <v>0.715</v>
@@ -17024,10 +17024,10 @@
         <v>0.607</v>
       </c>
       <c r="F488" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G488" t="n">
         <v>0.704</v>
-      </c>
-      <c r="G488" t="n">
-        <v>0.59</v>
       </c>
       <c r="H488" t="n">
         <v>0.642</v>
@@ -17058,10 +17058,10 @@
         <v>0.864</v>
       </c>
       <c r="F489" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G489" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G489" t="n">
-        <v>0.805</v>
       </c>
       <c r="H489" t="n">
         <v>0.876</v>
@@ -17092,10 +17092,10 @@
         <v>0.704</v>
       </c>
       <c r="F490" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G490" t="n">
         <v>0.894</v>
-      </c>
-      <c r="G490" t="n">
-        <v>0.648</v>
       </c>
       <c r="H490" t="n">
         <v>0.751</v>
@@ -17126,10 +17126,10 @@
         <v>0.753</v>
       </c>
       <c r="F491" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="G491" t="n">
         <v>0.913</v>
-      </c>
-      <c r="G491" t="n">
-        <v>0.6909999999999999</v>
       </c>
       <c r="H491" t="n">
         <v>0.787</v>
@@ -17160,10 +17160,10 @@
         <v>0.66</v>
       </c>
       <c r="F492" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="G492" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G492" t="n">
-        <v>0.619</v>
       </c>
       <c r="H492" t="n">
         <v>0.711</v>
@@ -17194,10 +17194,10 @@
         <v>0.61</v>
       </c>
       <c r="F493" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G493" t="n">
         <v>0.786</v>
-      </c>
-      <c r="G493" t="n">
-        <v>0.582</v>
       </c>
       <c r="H493" t="n">
         <v>0.669</v>
@@ -17228,10 +17228,10 @@
         <v>0.858</v>
       </c>
       <c r="F494" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="G494" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G494" t="n">
-        <v>0.801</v>
       </c>
       <c r="H494" t="n">
         <v>0.87</v>
@@ -17262,10 +17262,10 @@
         <v>0.84</v>
       </c>
       <c r="F495" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="G495" t="n">
         <v>0.944</v>
-      </c>
-      <c r="G495" t="n">
-        <v>0.781</v>
       </c>
       <c r="H495" t="n">
         <v>0.855</v>
@@ -17296,10 +17296,10 @@
         <v>0.611</v>
       </c>
       <c r="F496" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G496" t="n">
         <v>0.745</v>
-      </c>
-      <c r="G496" t="n">
-        <v>0.588</v>
       </c>
       <c r="H496" t="n">
         <v>0.657</v>
@@ -17330,10 +17330,10 @@
         <v>0.72</v>
       </c>
       <c r="F497" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G497" t="n">
         <v>0.877</v>
-      </c>
-      <c r="G497" t="n">
-        <v>0.668</v>
       </c>
       <c r="H497" t="n">
         <v>0.758</v>
@@ -17364,10 +17364,10 @@
         <v>0.852</v>
       </c>
       <c r="F498" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="G498" t="n">
         <v>0.946</v>
-      </c>
-      <c r="G498" t="n">
-        <v>0.796</v>
       </c>
       <c r="H498" t="n">
         <v>0.865</v>
@@ -17398,10 +17398,10 @@
         <v>0.665</v>
       </c>
       <c r="F499" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G499" t="n">
         <v>0.827</v>
-      </c>
-      <c r="G499" t="n">
-        <v>0.624</v>
       </c>
       <c r="H499" t="n">
         <v>0.711</v>
@@ -17432,10 +17432,10 @@
         <v>0.625</v>
       </c>
       <c r="F500" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="G500" t="n">
         <v>0.8</v>
-      </c>
-      <c r="G500" t="n">
-        <v>0.593</v>
       </c>
       <c r="H500" t="n">
         <v>0.681</v>
@@ -17466,10 +17466,10 @@
         <v>0.843</v>
       </c>
       <c r="F501" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="G501" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G501" t="n">
-        <v>0.777</v>
       </c>
       <c r="H501" t="n">
         <v>0.859</v>
@@ -17500,10 +17500,10 @@
         <v>0.859</v>
       </c>
       <c r="F502" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="G502" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G502" t="n">
-        <v>0.801</v>
       </c>
       <c r="H502" t="n">
         <v>0.871</v>
@@ -17534,10 +17534,10 @@
         <v>0.631</v>
       </c>
       <c r="F503" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G503" t="n">
         <v>0.796</v>
-      </c>
-      <c r="G503" t="n">
-        <v>0.599</v>
       </c>
       <c r="H503" t="n">
         <v>0.6840000000000001</v>
@@ -17568,10 +17568,10 @@
         <v>0.593</v>
       </c>
       <c r="F504" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G504" t="n">
         <v>0.705</v>
-      </c>
-      <c r="G504" t="n">
-        <v>0.576</v>
       </c>
       <c r="H504" t="n">
         <v>0.634</v>
@@ -17602,10 +17602,10 @@
         <v>0.676</v>
       </c>
       <c r="F505" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G505" t="n">
         <v>0.893</v>
-      </c>
-      <c r="G505" t="n">
-        <v>0.623</v>
       </c>
       <c r="H505" t="n">
         <v>0.734</v>
@@ -17636,10 +17636,10 @@
         <v>0.598</v>
       </c>
       <c r="F506" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="G506" t="n">
         <v>0.764</v>
-      </c>
-      <c r="G506" t="n">
-        <v>0.574</v>
       </c>
       <c r="H506" t="n">
         <v>0.656</v>
@@ -17670,10 +17670,10 @@
         <v>0.853</v>
       </c>
       <c r="F507" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="G507" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G507" t="n">
-        <v>0.791</v>
       </c>
       <c r="H507" t="n">
         <v>0.867</v>
@@ -17704,10 +17704,10 @@
         <v>0.866</v>
       </c>
       <c r="F508" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="G508" t="n">
         <v>0.96</v>
-      </c>
-      <c r="G508" t="n">
-        <v>0.8080000000000001</v>
       </c>
       <c r="H508" t="n">
         <v>0.877</v>
@@ -17738,10 +17738,10 @@
         <v>0.869</v>
       </c>
       <c r="F509" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G509" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G509" t="n">
-        <v>0.8179999999999999</v>
       </c>
       <c r="H509" t="n">
         <v>0.879</v>
@@ -17772,10 +17772,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F510" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G510" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G510" t="n">
-        <v>0.638</v>
       </c>
       <c r="H510" t="n">
         <v>0.738</v>
@@ -17806,10 +17806,10 @@
         <v>0.703</v>
       </c>
       <c r="F511" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G511" t="n">
         <v>0.863</v>
-      </c>
-      <c r="G511" t="n">
-        <v>0.654</v>
       </c>
       <c r="H511" t="n">
         <v>0.744</v>
@@ -17840,10 +17840,10 @@
         <v>0.626</v>
       </c>
       <c r="F512" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G512" t="n">
         <v>0.719</v>
-      </c>
-      <c r="G512" t="n">
-        <v>0.606</v>
       </c>
       <c r="H512" t="n">
         <v>0.658</v>
@@ -17874,10 +17874,10 @@
         <v>0.745</v>
       </c>
       <c r="F513" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="G513" t="n">
         <v>0.859</v>
-      </c>
-      <c r="G513" t="n">
-        <v>0.699</v>
       </c>
       <c r="H513" t="n">
         <v>0.771</v>
@@ -17908,10 +17908,10 @@
         <v>0.681</v>
       </c>
       <c r="F514" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G514" t="n">
         <v>0.866</v>
-      </c>
-      <c r="G514" t="n">
-        <v>0.632</v>
       </c>
       <c r="H514" t="n">
         <v>0.731</v>
@@ -17942,10 +17942,10 @@
         <v>0.662</v>
       </c>
       <c r="F515" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G515" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G515" t="n">
-        <v>0.621</v>
       </c>
       <c r="H515" t="n">
         <v>0.712</v>
@@ -17976,10 +17976,10 @@
         <v>0.736</v>
       </c>
       <c r="F516" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G516" t="n">
         <v>0.874</v>
-      </c>
-      <c r="G516" t="n">
-        <v>0.6850000000000001</v>
       </c>
       <c r="H516" t="n">
         <v>0.768</v>
@@ -18010,10 +18010,10 @@
         <v>0.7</v>
       </c>
       <c r="F517" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G517" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G517" t="n">
-        <v>0.646</v>
       </c>
       <c r="H517" t="n">
         <v>0.745</v>
@@ -18044,10 +18044,10 @@
         <v>0.704</v>
       </c>
       <c r="F518" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G518" t="n">
         <v>0.849</v>
-      </c>
-      <c r="G518" t="n">
-        <v>0.658</v>
       </c>
       <c r="H518" t="n">
         <v>0.741</v>
@@ -18078,10 +18078,10 @@
         <v>0.7</v>
       </c>
       <c r="F519" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G519" t="n">
         <v>0.888</v>
-      </c>
-      <c r="G519" t="n">
-        <v>0.645</v>
       </c>
       <c r="H519" t="n">
         <v>0.747</v>
@@ -18112,10 +18112,10 @@
         <v>0.631</v>
       </c>
       <c r="F520" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G520" t="n">
         <v>0.713</v>
-      </c>
-      <c r="G520" t="n">
-        <v>0.612</v>
       </c>
       <c r="H520" t="n">
         <v>0.659</v>
@@ -18146,10 +18146,10 @@
         <v>0.628</v>
       </c>
       <c r="F521" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G521" t="n">
         <v>0.753</v>
-      </c>
-      <c r="G521" t="n">
-        <v>0.602</v>
       </c>
       <c r="H521" t="n">
         <v>0.669</v>
@@ -18180,10 +18180,10 @@
         <v>0.627</v>
       </c>
       <c r="F522" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G522" t="n">
         <v>0.728</v>
-      </c>
-      <c r="G522" t="n">
-        <v>0.605</v>
       </c>
       <c r="H522" t="n">
         <v>0.661</v>
@@ -18214,10 +18214,10 @@
         <v>0.715</v>
       </c>
       <c r="F523" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="G523" t="n">
         <v>0.841</v>
-      </c>
-      <c r="G523" t="n">
-        <v>0.672</v>
       </c>
       <c r="H523" t="n">
         <v>0.747</v>
@@ -18248,10 +18248,10 @@
         <v>0.729</v>
       </c>
       <c r="F524" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="G524" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G524" t="n">
-        <v>0.6889999999999999</v>
       </c>
       <c r="H524" t="n">
         <v>0.754</v>
@@ -18282,10 +18282,10 @@
         <v>0.663</v>
       </c>
       <c r="F525" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="G525" t="n">
         <v>0.851</v>
-      </c>
-      <c r="G525" t="n">
-        <v>0.619</v>
       </c>
       <c r="H525" t="n">
         <v>0.717</v>
@@ -18316,10 +18316,10 @@
         <v>0.671</v>
       </c>
       <c r="F526" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G526" t="n">
         <v>0.792</v>
-      </c>
-      <c r="G526" t="n">
-        <v>0.638</v>
       </c>
       <c r="H526" t="n">
         <v>0.707</v>
@@ -18350,10 +18350,10 @@
         <v>0.71</v>
       </c>
       <c r="F527" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G527" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G527" t="n">
-        <v>0.669</v>
       </c>
       <c r="H527" t="n">
         <v>0.742</v>
@@ -18384,10 +18384,10 @@
         <v>0.71</v>
       </c>
       <c r="F528" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G528" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G528" t="n">
-        <v>0.656</v>
       </c>
       <c r="H528" t="n">
         <v>0.752</v>
@@ -18418,10 +18418,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F529" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G529" t="n">
         <v>0.796</v>
-      </c>
-      <c r="G529" t="n">
-        <v>0.657</v>
       </c>
       <c r="H529" t="n">
         <v>0.72</v>
@@ -18452,10 +18452,10 @@
         <v>0.735</v>
       </c>
       <c r="F530" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="G530" t="n">
         <v>0.883</v>
-      </c>
-      <c r="G530" t="n">
-        <v>0.681</v>
       </c>
       <c r="H530" t="n">
         <v>0.769</v>
@@ -18486,10 +18486,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F531" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="G531" t="n">
         <v>0.8090000000000001</v>
-      </c>
-      <c r="G531" t="n">
-        <v>0.657</v>
       </c>
       <c r="H531" t="n">
         <v>0.725</v>
@@ -18520,10 +18520,10 @@
         <v>0.658</v>
       </c>
       <c r="F532" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G532" t="n">
         <v>0.8149999999999999</v>
-      </c>
-      <c r="G532" t="n">
-        <v>0.62</v>
       </c>
       <c r="H532" t="n">
         <v>0.704</v>
@@ -18554,10 +18554,10 @@
         <v>0.598</v>
       </c>
       <c r="F533" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G533" t="n">
         <v>0.73</v>
-      </c>
-      <c r="G533" t="n">
-        <v>0.577</v>
       </c>
       <c r="H533" t="n">
         <v>0.645</v>
@@ -18588,10 +18588,10 @@
         <v>0.729</v>
       </c>
       <c r="F534" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G534" t="n">
         <v>0.906</v>
-      </c>
-      <c r="G534" t="n">
-        <v>0.669</v>
       </c>
       <c r="H534" t="n">
         <v>0.77</v>
@@ -18622,10 +18622,10 @@
         <v>0.733</v>
       </c>
       <c r="F535" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="G535" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G535" t="n">
-        <v>0.6929999999999999</v>
       </c>
       <c r="H535" t="n">
         <v>0.757</v>
@@ -18656,10 +18656,10 @@
         <v>0.732</v>
       </c>
       <c r="F536" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="G536" t="n">
         <v>0.88</v>
-      </c>
-      <c r="G536" t="n">
-        <v>0.679</v>
       </c>
       <c r="H536" t="n">
         <v>0.767</v>
@@ -18690,10 +18690,10 @@
         <v>0.658</v>
       </c>
       <c r="F537" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="G537" t="n">
         <v>0.826</v>
-      </c>
-      <c r="G537" t="n">
-        <v>0.618</v>
       </c>
       <c r="H537" t="n">
         <v>0.707</v>
@@ -18724,10 +18724,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F538" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G538" t="n">
         <v>0.833</v>
-      </c>
-      <c r="G538" t="n">
-        <v>0.651</v>
       </c>
       <c r="H538" t="n">
         <v>0.731</v>
@@ -18758,10 +18758,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="F539" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G539" t="n">
         <v>0.822</v>
-      </c>
-      <c r="G539" t="n">
-        <v>0.649</v>
       </c>
       <c r="H539" t="n">
         <v>0.725</v>
@@ -18792,10 +18792,10 @@
         <v>0.724</v>
       </c>
       <c r="F540" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G540" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G540" t="n">
-        <v>0.6820000000000001</v>
       </c>
       <c r="H540" t="n">
         <v>0.752</v>
@@ -18826,10 +18826,10 @@
         <v>0.826</v>
       </c>
       <c r="F541" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="G541" t="n">
         <v>0.948</v>
-      </c>
-      <c r="G541" t="n">
-        <v>0.761</v>
       </c>
       <c r="H541" t="n">
         <v>0.844</v>
@@ -18860,10 +18860,10 @@
         <v>0.857</v>
       </c>
       <c r="F542" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G542" t="n">
         <v>0.956</v>
-      </c>
-      <c r="G542" t="n">
-        <v>0.798</v>
       </c>
       <c r="H542" t="n">
         <v>0.87</v>
@@ -18894,10 +18894,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F543" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G543" t="n">
         <v>0.836</v>
-      </c>
-      <c r="G543" t="n">
-        <v>0.65</v>
       </c>
       <c r="H543" t="n">
         <v>0.731</v>
@@ -18928,10 +18928,10 @@
         <v>0.641</v>
       </c>
       <c r="F544" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G544" t="n">
         <v>0.797</v>
-      </c>
-      <c r="G544" t="n">
-        <v>0.608</v>
       </c>
       <c r="H544" t="n">
         <v>0.6899999999999999</v>
@@ -18962,10 +18962,10 @@
         <v>0.592</v>
       </c>
       <c r="F545" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G545" t="n">
         <v>0.801</v>
-      </c>
-      <c r="G545" t="n">
-        <v>0.5649999999999999</v>
       </c>
       <c r="H545" t="n">
         <v>0.663</v>
@@ -18996,10 +18996,10 @@
         <v>0.698</v>
       </c>
       <c r="F546" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G546" t="n">
         <v>0.822</v>
-      </c>
-      <c r="G546" t="n">
-        <v>0.659</v>
       </c>
       <c r="H546" t="n">
         <v>0.732</v>
@@ -19030,10 +19030,10 @@
         <v>0.73</v>
       </c>
       <c r="F547" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G547" t="n">
         <v>0.886</v>
-      </c>
-      <c r="G547" t="n">
-        <v>0.675</v>
       </c>
       <c r="H547" t="n">
         <v>0.766</v>
@@ -19064,10 +19064,10 @@
         <v>0.853</v>
       </c>
       <c r="F548" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="G548" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G548" t="n">
-        <v>0.797</v>
       </c>
       <c r="H548" t="n">
         <v>0.866</v>
@@ -19098,10 +19098,10 @@
         <v>0.659</v>
       </c>
       <c r="F549" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="G549" t="n">
         <v>0.786</v>
-      </c>
-      <c r="G549" t="n">
-        <v>0.627</v>
       </c>
       <c r="H549" t="n">
         <v>0.698</v>
@@ -19132,10 +19132,10 @@
         <v>0.748</v>
       </c>
       <c r="F550" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G550" t="n">
         <v>0.907</v>
-      </c>
-      <c r="G550" t="n">
-        <v>0.6879999999999999</v>
       </c>
       <c r="H550" t="n">
         <v>0.782</v>
@@ -19166,10 +19166,10 @@
         <v>0.701</v>
       </c>
       <c r="F551" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G551" t="n">
         <v>0.898</v>
-      </c>
-      <c r="G551" t="n">
-        <v>0.644</v>
       </c>
       <c r="H551" t="n">
         <v>0.75</v>
@@ -19200,10 +19200,10 @@
         <v>0.854</v>
       </c>
       <c r="F552" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="G552" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G552" t="n">
-        <v>0.793</v>
       </c>
       <c r="H552" t="n">
         <v>0.868</v>
@@ -19234,10 +19234,10 @@
         <v>0.709</v>
       </c>
       <c r="F553" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G553" t="n">
         <v>0.845</v>
-      </c>
-      <c r="G553" t="n">
-        <v>0.664</v>
       </c>
       <c r="H553" t="n">
         <v>0.744</v>
@@ -19268,10 +19268,10 @@
         <v>0.612</v>
       </c>
       <c r="F554" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G554" t="n">
         <v>0.765</v>
-      </c>
-      <c r="G554" t="n">
-        <v>0.586</v>
       </c>
       <c r="H554" t="n">
         <v>0.664</v>
@@ -19302,10 +19302,10 @@
         <v>0.67</v>
       </c>
       <c r="F555" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="G555" t="n">
         <v>0.791</v>
-      </c>
-      <c r="G555" t="n">
-        <v>0.637</v>
       </c>
       <c r="H555" t="n">
         <v>0.706</v>
@@ -19336,10 +19336,10 @@
         <v>0.714</v>
       </c>
       <c r="F556" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="G556" t="n">
         <v>0.79</v>
-      </c>
-      <c r="G556" t="n">
-        <v>0.6860000000000001</v>
       </c>
       <c r="H556" t="n">
         <v>0.734</v>
@@ -19370,10 +19370,10 @@
         <v>0.697</v>
       </c>
       <c r="F557" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="G557" t="n">
         <v>0.804</v>
-      </c>
-      <c r="G557" t="n">
-        <v>0.663</v>
       </c>
       <c r="H557" t="n">
         <v>0.727</v>
@@ -19404,10 +19404,10 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="F558" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="G558" t="n">
         <v>0.832</v>
-      </c>
-      <c r="G558" t="n">
-        <v>0.641</v>
       </c>
       <c r="H558" t="n">
         <v>0.724</v>
@@ -19438,10 +19438,10 @@
         <v>0.71</v>
       </c>
       <c r="F559" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G559" t="n">
         <v>0.847</v>
-      </c>
-      <c r="G559" t="n">
-        <v>0.665</v>
       </c>
       <c r="H559" t="n">
         <v>0.745</v>
@@ -19472,10 +19472,10 @@
         <v>0.603</v>
       </c>
       <c r="F560" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="G560" t="n">
         <v>0.769</v>
-      </c>
-      <c r="G560" t="n">
-        <v>0.577</v>
       </c>
       <c r="H560" t="n">
         <v>0.659</v>
@@ -19506,10 +19506,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="F561" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G561" t="n">
         <v>0.798</v>
-      </c>
-      <c r="G561" t="n">
-        <v>0.649</v>
       </c>
       <c r="H561" t="n">
         <v>0.716</v>
@@ -19540,10 +19540,10 @@
         <v>0.853</v>
       </c>
       <c r="F562" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G562" t="n">
         <v>0.953</v>
-      </c>
-      <c r="G562" t="n">
-        <v>0.795</v>
       </c>
       <c r="H562" t="n">
         <v>0.867</v>
@@ -19574,10 +19574,10 @@
         <v>0.675</v>
       </c>
       <c r="F563" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G563" t="n">
         <v>0.799</v>
-      </c>
-      <c r="G563" t="n">
-        <v>0.64</v>
       </c>
       <c r="H563" t="n">
         <v>0.711</v>
@@ -19608,10 +19608,10 @@
         <v>0.71</v>
       </c>
       <c r="F564" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G564" t="n">
         <v>0.887</v>
-      </c>
-      <c r="G564" t="n">
-        <v>0.655</v>
       </c>
       <c r="H564" t="n">
         <v>0.754</v>
@@ -19642,10 +19642,10 @@
         <v>0.869</v>
       </c>
       <c r="F565" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G565" t="n">
         <v>0.957</v>
-      </c>
-      <c r="G565" t="n">
-        <v>0.8139999999999999</v>
       </c>
       <c r="H565" t="n">
         <v>0.88</v>
@@ -19676,10 +19676,10 @@
         <v>0.669</v>
       </c>
       <c r="F566" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G566" t="n">
         <v>0.775</v>
-      </c>
-      <c r="G566" t="n">
-        <v>0.64</v>
       </c>
       <c r="H566" t="n">
         <v>0.701</v>
@@ -19710,10 +19710,10 @@
         <v>0.655</v>
       </c>
       <c r="F567" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G567" t="n">
         <v>0.745</v>
-      </c>
-      <c r="G567" t="n">
-        <v>0.631</v>
       </c>
       <c r="H567" t="n">
         <v>0.6830000000000001</v>
@@ -19744,10 +19744,10 @@
         <v>0.711</v>
       </c>
       <c r="F568" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G568" t="n">
         <v>0.855</v>
-      </c>
-      <c r="G568" t="n">
-        <v>0.664</v>
       </c>
       <c r="H568" t="n">
         <v>0.747</v>
@@ -19778,10 +19778,10 @@
         <v>0.695</v>
       </c>
       <c r="F569" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G569" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G569" t="n">
-        <v>0.642</v>
       </c>
       <c r="H569" t="n">
         <v>0.743</v>
@@ -19812,10 +19812,10 @@
         <v>0.795</v>
       </c>
       <c r="F570" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G570" t="n">
         <v>0.958</v>
-      </c>
-      <c r="G570" t="n">
-        <v>0.722</v>
       </c>
       <c r="H570" t="n">
         <v>0.823</v>
@@ -19846,10 +19846,10 @@
         <v>0.7</v>
       </c>
       <c r="F571" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G571" t="n">
         <v>0.829</v>
-      </c>
-      <c r="G571" t="n">
-        <v>0.659</v>
       </c>
       <c r="H571" t="n">
         <v>0.734</v>
@@ -19880,10 +19880,10 @@
         <v>0.701</v>
       </c>
       <c r="F572" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G572" t="n">
         <v>0.877</v>
-      </c>
-      <c r="G572" t="n">
-        <v>0.649</v>
       </c>
       <c r="H572" t="n">
         <v>0.746</v>
@@ -19914,10 +19914,10 @@
         <v>0.755</v>
       </c>
       <c r="F573" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G573" t="n">
         <v>0.877</v>
-      </c>
-      <c r="G573" t="n">
-        <v>0.705</v>
       </c>
       <c r="H573" t="n">
         <v>0.782</v>
@@ -19948,10 +19948,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="F574" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G574" t="n">
         <v>0.835</v>
-      </c>
-      <c r="G574" t="n">
-        <v>0.646</v>
       </c>
       <c r="H574" t="n">
         <v>0.728</v>
@@ -19982,10 +19982,10 @@
         <v>0.678</v>
       </c>
       <c r="F575" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="G575" t="n">
         <v>0.845</v>
-      </c>
-      <c r="G575" t="n">
-        <v>0.633</v>
       </c>
       <c r="H575" t="n">
         <v>0.724</v>
@@ -20016,10 +20016,10 @@
         <v>0.668</v>
       </c>
       <c r="F576" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G576" t="n">
         <v>0.773</v>
-      </c>
-      <c r="G576" t="n">
-        <v>0.639</v>
       </c>
       <c r="H576" t="n">
         <v>0.7</v>
@@ -20050,10 +20050,10 @@
         <v>0.73</v>
       </c>
       <c r="F577" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="G577" t="n">
         <v>0.881</v>
-      </c>
-      <c r="G577" t="n">
-        <v>0.676</v>
       </c>
       <c r="H577" t="n">
         <v>0.765</v>
@@ -20084,10 +20084,10 @@
         <v>0.698</v>
       </c>
       <c r="F578" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G578" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G578" t="n">
-        <v>0.656</v>
       </c>
       <c r="H578" t="n">
         <v>0.734</v>
@@ -20118,10 +20118,10 @@
         <v>0.708</v>
       </c>
       <c r="F579" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G579" t="n">
         <v>0.858</v>
-      </c>
-      <c r="G579" t="n">
-        <v>0.66</v>
       </c>
       <c r="H579" t="n">
         <v>0.746</v>
@@ -20152,10 +20152,10 @@
         <v>0.676</v>
       </c>
       <c r="F580" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G580" t="n">
         <v>0.8070000000000001</v>
-      </c>
-      <c r="G580" t="n">
-        <v>0.64</v>
       </c>
       <c r="H580" t="n">
         <v>0.714</v>
@@ -20186,10 +20186,10 @@
         <v>0.664</v>
       </c>
       <c r="F581" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G581" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G581" t="n">
-        <v>0.623</v>
       </c>
       <c r="H581" t="n">
         <v>0.713</v>
@@ -20220,10 +20220,10 @@
         <v>0.697</v>
       </c>
       <c r="F582" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="G582" t="n">
         <v>0.848</v>
-      </c>
-      <c r="G582" t="n">
-        <v>0.651</v>
       </c>
       <c r="H582" t="n">
         <v>0.737</v>
@@ -20254,10 +20254,10 @@
         <v>0.704</v>
       </c>
       <c r="F583" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="G583" t="n">
         <v>0.873</v>
-      </c>
-      <c r="G583" t="n">
-        <v>0.652</v>
       </c>
       <c r="H583" t="n">
         <v>0.746</v>
@@ -20288,10 +20288,10 @@
         <v>0.863</v>
       </c>
       <c r="F584" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G584" t="n">
         <v>0.963</v>
-      </c>
-      <c r="G584" t="n">
-        <v>0.803</v>
       </c>
       <c r="H584" t="n">
         <v>0.876</v>
@@ -20322,10 +20322,10 @@
         <v>0.853</v>
       </c>
       <c r="F585" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G585" t="n">
         <v>0.961</v>
-      </c>
-      <c r="G585" t="n">
-        <v>0.79</v>
       </c>
       <c r="H585" t="n">
         <v>0.867</v>
@@ -20356,10 +20356,10 @@
         <v>0.71</v>
       </c>
       <c r="F586" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G586" t="n">
         <v>0.837</v>
-      </c>
-      <c r="G586" t="n">
-        <v>0.668</v>
       </c>
       <c r="H586" t="n">
         <v>0.743</v>
@@ -20390,10 +20390,10 @@
         <v>0.87</v>
       </c>
       <c r="F587" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G587" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G587" t="n">
-        <v>0.8139999999999999</v>
       </c>
       <c r="H587" t="n">
         <v>0.881</v>
@@ -20424,10 +20424,10 @@
         <v>0.635</v>
       </c>
       <c r="F588" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G588" t="n">
         <v>0.783</v>
-      </c>
-      <c r="G588" t="n">
-        <v>0.605</v>
       </c>
       <c r="H588" t="n">
         <v>0.6830000000000001</v>
@@ -20458,10 +20458,10 @@
         <v>0.716</v>
       </c>
       <c r="F589" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="G589" t="n">
         <v>0.852</v>
-      </c>
-      <c r="G589" t="n">
-        <v>0.669</v>
       </c>
       <c r="H589" t="n">
         <v>0.749</v>
@@ -20492,10 +20492,10 @@
         <v>0.59</v>
       </c>
       <c r="F590" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G590" t="n">
         <v>0.729</v>
-      </c>
-      <c r="G590" t="n">
-        <v>0.57</v>
       </c>
       <c r="H590" t="n">
         <v>0.64</v>
@@ -20526,10 +20526,10 @@
         <v>0.699</v>
       </c>
       <c r="F591" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G591" t="n">
         <v>0.831</v>
-      </c>
-      <c r="G591" t="n">
-        <v>0.658</v>
       </c>
       <c r="H591" t="n">
         <v>0.734</v>
@@ -20560,10 +20560,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="F592" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G592" t="n">
         <v>0.963</v>
-      </c>
-      <c r="G592" t="n">
-        <v>0.743</v>
       </c>
       <c r="H592" t="n">
         <v>0.839</v>
@@ -20594,10 +20594,10 @@
         <v>0.867</v>
       </c>
       <c r="F593" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G593" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G593" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H593" t="n">
         <v>0.878</v>
@@ -20628,10 +20628,10 @@
         <v>0.678</v>
       </c>
       <c r="F594" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G594" t="n">
         <v>0.84</v>
-      </c>
-      <c r="G594" t="n">
-        <v>0.634</v>
       </c>
       <c r="H594" t="n">
         <v>0.723</v>
@@ -20662,10 +20662,10 @@
         <v>0.733</v>
       </c>
       <c r="F595" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G595" t="n">
         <v>0.891</v>
-      </c>
-      <c r="G595" t="n">
-        <v>0.677</v>
       </c>
       <c r="H595" t="n">
         <v>0.769</v>
@@ -20696,10 +20696,10 @@
         <v>0.857</v>
       </c>
       <c r="F596" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="G596" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G596" t="n">
-        <v>0.801</v>
       </c>
       <c r="H596" t="n">
         <v>0.869</v>
@@ -20730,10 +20730,10 @@
         <v>0.704</v>
       </c>
       <c r="F597" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G597" t="n">
         <v>0.838</v>
-      </c>
-      <c r="G597" t="n">
-        <v>0.661</v>
       </c>
       <c r="H597" t="n">
         <v>0.739</v>
@@ -20764,10 +20764,10 @@
         <v>0.6929999999999999</v>
       </c>
       <c r="F598" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G598" t="n">
         <v>0.839</v>
-      </c>
-      <c r="G598" t="n">
-        <v>0.649</v>
       </c>
       <c r="H598" t="n">
         <v>0.732</v>
@@ -20798,10 +20798,10 @@
         <v>0.868</v>
       </c>
       <c r="F599" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G599" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G599" t="n">
-        <v>0.8120000000000001</v>
       </c>
       <c r="H599" t="n">
         <v>0.879</v>
@@ -20832,10 +20832,10 @@
         <v>0.861</v>
       </c>
       <c r="F600" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="G600" t="n">
         <v>0.949</v>
-      </c>
-      <c r="G600" t="n">
-        <v>0.8070000000000001</v>
       </c>
       <c r="H600" t="n">
         <v>0.872</v>
@@ -20866,10 +20866,10 @@
         <v>0.7</v>
       </c>
       <c r="F601" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="G601" t="n">
         <v>0.852</v>
-      </c>
-      <c r="G601" t="n">
-        <v>0.653</v>
       </c>
       <c r="H601" t="n">
         <v>0.739</v>
@@ -20900,10 +20900,10 @@
         <v>0.721</v>
       </c>
       <c r="F602" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G602" t="n">
         <v>0.889</v>
-      </c>
-      <c r="G602" t="n">
-        <v>0.665</v>
       </c>
       <c r="H602" t="n">
         <v>0.761</v>
@@ -20934,10 +20934,10 @@
         <v>0.679</v>
       </c>
       <c r="F603" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G603" t="n">
         <v>0.834</v>
-      </c>
-      <c r="G603" t="n">
-        <v>0.636</v>
       </c>
       <c r="H603" t="n">
         <v>0.722</v>
@@ -20968,10 +20968,10 @@
         <v>0.856</v>
       </c>
       <c r="F604" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="G604" t="n">
         <v>0.955</v>
-      </c>
-      <c r="G604" t="n">
-        <v>0.797</v>
       </c>
       <c r="H604" t="n">
         <v>0.869</v>
@@ -21002,10 +21002,10 @@
         <v>0.856</v>
       </c>
       <c r="F605" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G605" t="n">
         <v>0.95</v>
-      </c>
-      <c r="G605" t="n">
-        <v>0.8</v>
       </c>
       <c r="H605" t="n">
         <v>0.869</v>
@@ -21036,10 +21036,10 @@
         <v>0.836</v>
       </c>
       <c r="F606" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="G606" t="n">
         <v>0.959</v>
-      </c>
-      <c r="G606" t="n">
-        <v>0.769</v>
       </c>
       <c r="H606" t="n">
         <v>0.854</v>
